--- a/HME_R_Analysis/HMEData-for-R/Completion Time.xlsx
+++ b/HME_R_Analysis/HMEData-for-R/Completion Time.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="129">
   <si>
     <t>SubjectNum</t>
   </si>
@@ -192,7 +192,7 @@
     <t>Control</t>
   </si>
   <si>
-    <t>Data</t>
+    <t>SubjectData</t>
   </si>
   <si>
     <t>SubjectNum</t>
@@ -370,6 +370,33 @@
   </si>
   <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>SubjectData</t>
+  </si>
+  <si>
+    <t>SubjectNum</t>
+  </si>
+  <si>
+    <t>Mappings</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>SubjectData</t>
+  </si>
+  <si>
+    <t>SubjectNum</t>
+  </si>
+  <si>
+    <t>Mappings</t>
   </si>
   <si>
     <t>SubjectData</t>
@@ -422,5956 +449,5956 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.16796875" customWidth="true"/>
-    <col min="2" max="2" width="9.53125" customWidth="true"/>
+    <col min="2" max="2" width="9.34765625" customWidth="true"/>
     <col min="3" max="3" width="11.07421875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>116</v>
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
       </c>
       <c r="C2" s="0">
         <v>3.8083299999998417</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>116</v>
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1</v>
       </c>
       <c r="C3" s="0">
         <v>6.1709399999999732</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>116</v>
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
       </c>
       <c r="C4" s="0">
         <v>5.3228699999999662</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>116</v>
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
       </c>
       <c r="C5" s="0">
         <v>5.372899999999845</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>116</v>
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1</v>
       </c>
       <c r="C6" s="0">
         <v>7.6354000000001179</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>116</v>
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1</v>
       </c>
       <c r="C7" s="0">
         <v>5.1889000000001033</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>116</v>
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1</v>
       </c>
       <c r="C8" s="0">
         <v>5.7009199999997691</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>116</v>
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1</v>
       </c>
       <c r="C9" s="0">
         <v>4.8112199999995937</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>116</v>
+      <c r="A10" s="0">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
       </c>
       <c r="C10" s="0">
         <v>6.8308999999999287</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>116</v>
+      <c r="A11" s="0">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1</v>
       </c>
       <c r="C11" s="0">
         <v>6.6069999999999709</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>116</v>
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1</v>
       </c>
       <c r="C12" s="0">
         <v>3.6491399999999885</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>116</v>
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1</v>
       </c>
       <c r="C13" s="0">
         <v>3.001510000000053</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>116</v>
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1</v>
       </c>
       <c r="C14" s="0">
         <v>3.2736599999998361</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>116</v>
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1</v>
       </c>
       <c r="C15" s="0">
         <v>3.7107800000001134</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>116</v>
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1</v>
       </c>
       <c r="C16" s="0">
         <v>3.2961699999998473</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>116</v>
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1</v>
       </c>
       <c r="C17" s="0">
         <v>3.2221300000001065</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>116</v>
+      <c r="A18" s="0">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
       </c>
       <c r="C18" s="0">
         <v>3.0908799999999701</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>116</v>
+      <c r="A19" s="0">
+        <v>2</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1</v>
       </c>
       <c r="C19" s="0">
         <v>3.3595499999998992</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>116</v>
+      <c r="A20" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1</v>
       </c>
       <c r="C20" s="0">
         <v>2.955679999999802</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>116</v>
+      <c r="A21" s="0">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1</v>
       </c>
       <c r="C21" s="0">
         <v>3.2424200000000383</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>116</v>
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1</v>
       </c>
       <c r="C22" s="0">
         <v>5.5762500000000728</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>116</v>
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1</v>
       </c>
       <c r="C23" s="0">
         <v>11.890319999999974</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>116</v>
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>1</v>
       </c>
       <c r="C24" s="0">
         <v>5.8751800000000003</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>116</v>
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1</v>
       </c>
       <c r="C25" s="0">
         <v>6.3556899999998677</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>116</v>
+      <c r="A26" s="0">
+        <v>3</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
       </c>
       <c r="C26" s="0">
         <v>6.6999299999999948</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>116</v>
+      <c r="A27" s="0">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1</v>
       </c>
       <c r="C27" s="0">
         <v>5.7129800000000159</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>116</v>
+      <c r="A28" s="0">
+        <v>3</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1</v>
       </c>
       <c r="C28" s="0">
         <v>6.5293099999998958</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>116</v>
+      <c r="A29" s="0">
+        <v>3</v>
+      </c>
+      <c r="B29" s="0">
+        <v>1</v>
       </c>
       <c r="C29" s="0">
         <v>5.6955399999999372</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>116</v>
+      <c r="A30" s="0">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0">
+        <v>1</v>
       </c>
       <c r="C30" s="0">
         <v>5.9099699999999302</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>116</v>
+      <c r="A31" s="0">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1</v>
       </c>
       <c r="C31" s="0">
         <v>6.5339900000001307</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>116</v>
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
+        <v>1</v>
       </c>
       <c r="C32" s="0">
         <v>3.5282400000000962</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>116</v>
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
+        <v>1</v>
       </c>
       <c r="C33" s="0">
         <v>2.6911600000000817</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>116</v>
+      <c r="A34" s="0">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0">
+        <v>1</v>
       </c>
       <c r="C34" s="0">
         <v>2.9103500000001077</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>116</v>
+      <c r="A35" s="0">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0">
+        <v>1</v>
       </c>
       <c r="C35" s="0">
         <v>2.8076099999998405</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>116</v>
+      <c r="A36" s="0">
+        <v>4</v>
+      </c>
+      <c r="B36" s="0">
+        <v>1</v>
       </c>
       <c r="C36" s="0">
         <v>3.2984700000001794</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>116</v>
+      <c r="A37" s="0">
+        <v>4</v>
+      </c>
+      <c r="B37" s="0">
+        <v>1</v>
       </c>
       <c r="C37" s="0">
         <v>2.8092200000000958</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>116</v>
+      <c r="A38" s="0">
+        <v>4</v>
+      </c>
+      <c r="B38" s="0">
+        <v>1</v>
       </c>
       <c r="C38" s="0">
         <v>3.1918600000001334</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>116</v>
+      <c r="A39" s="0">
+        <v>4</v>
+      </c>
+      <c r="B39" s="0">
+        <v>1</v>
       </c>
       <c r="C39" s="0">
         <v>2.9619299999999384</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>116</v>
+      <c r="A40" s="0">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0">
+        <v>1</v>
       </c>
       <c r="C40" s="0">
         <v>3.3573499999999967</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>116</v>
+      <c r="A41" s="0">
+        <v>4</v>
+      </c>
+      <c r="B41" s="0">
+        <v>1</v>
       </c>
       <c r="C41" s="0">
         <v>3.4199599999999464</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>116</v>
+      <c r="A42" s="0">
+        <v>5</v>
+      </c>
+      <c r="B42" s="0">
+        <v>1</v>
       </c>
       <c r="C42" s="0">
         <v>5.0000099999997474</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>116</v>
+      <c r="A43" s="0">
+        <v>5</v>
+      </c>
+      <c r="B43" s="0">
+        <v>1</v>
       </c>
       <c r="C43" s="0">
         <v>4.0933100000002014</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>116</v>
+      <c r="A44" s="0">
+        <v>5</v>
+      </c>
+      <c r="B44" s="0">
+        <v>1</v>
       </c>
       <c r="C44" s="0">
         <v>10.23163999999997</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>116</v>
+      <c r="A45" s="0">
+        <v>5</v>
+      </c>
+      <c r="B45" s="0">
+        <v>1</v>
       </c>
       <c r="C45" s="0">
         <v>4.4399399999997513</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>116</v>
+      <c r="A46" s="0">
+        <v>5</v>
+      </c>
+      <c r="B46" s="0">
+        <v>1</v>
       </c>
       <c r="C46" s="0">
         <v>4.6212599999998929</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>116</v>
+      <c r="A47" s="0">
+        <v>5</v>
+      </c>
+      <c r="B47" s="0">
+        <v>1</v>
       </c>
       <c r="C47" s="0">
         <v>4.5327399999996487</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>116</v>
+      <c r="A48" s="0">
+        <v>5</v>
+      </c>
+      <c r="B48" s="0">
+        <v>1</v>
       </c>
       <c r="C48" s="0">
         <v>5.8730299999997442</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>116</v>
+      <c r="A49" s="0">
+        <v>5</v>
+      </c>
+      <c r="B49" s="0">
+        <v>1</v>
       </c>
       <c r="C49" s="0">
         <v>4.3768099999997503</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>116</v>
+      <c r="A50" s="0">
+        <v>5</v>
+      </c>
+      <c r="B50" s="0">
+        <v>1</v>
       </c>
       <c r="C50" s="0">
         <v>5.2718899999999849</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>116</v>
+      <c r="A51" s="0">
+        <v>5</v>
+      </c>
+      <c r="B51" s="0">
+        <v>1</v>
       </c>
       <c r="C51" s="0">
         <v>5.5546400000002905</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>116</v>
+      <c r="A52" s="0">
+        <v>6</v>
+      </c>
+      <c r="B52" s="0">
+        <v>1</v>
       </c>
       <c r="C52" s="0">
         <v>2.5542900000000373</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>116</v>
+      <c r="A53" s="0">
+        <v>6</v>
+      </c>
+      <c r="B53" s="0">
+        <v>1</v>
       </c>
       <c r="C53" s="0">
         <v>2.279260000000022</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>116</v>
+      <c r="A54" s="0">
+        <v>6</v>
+      </c>
+      <c r="B54" s="0">
+        <v>1</v>
       </c>
       <c r="C54" s="0">
         <v>2.3125599999998485</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>116</v>
+      <c r="A55" s="0">
+        <v>6</v>
+      </c>
+      <c r="B55" s="0">
+        <v>1</v>
       </c>
       <c r="C55" s="0">
         <v>3.79950000000008</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>116</v>
+      <c r="A56" s="0">
+        <v>6</v>
+      </c>
+      <c r="B56" s="0">
+        <v>1</v>
       </c>
       <c r="C56" s="0">
         <v>2.3078100000000177</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>116</v>
+      <c r="A57" s="0">
+        <v>6</v>
+      </c>
+      <c r="B57" s="0">
+        <v>1</v>
       </c>
       <c r="C57" s="0">
         <v>2.4330199999999422</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>116</v>
+      <c r="A58" s="0">
+        <v>6</v>
+      </c>
+      <c r="B58" s="0">
+        <v>1</v>
       </c>
       <c r="C58" s="0">
         <v>2.3319899999999052</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>116</v>
+      <c r="A59" s="0">
+        <v>6</v>
+      </c>
+      <c r="B59" s="0">
+        <v>1</v>
       </c>
       <c r="C59" s="0">
         <v>2.3790599999999813</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>116</v>
+      <c r="A60" s="0">
+        <v>6</v>
+      </c>
+      <c r="B60" s="0">
+        <v>1</v>
       </c>
       <c r="C60" s="0">
         <v>2.1916799999999057</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>116</v>
+      <c r="A61" s="0">
+        <v>6</v>
+      </c>
+      <c r="B61" s="0">
+        <v>1</v>
       </c>
       <c r="C61" s="0">
         <v>2.3237400000000434</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>116</v>
+      <c r="A62" s="0">
+        <v>7</v>
+      </c>
+      <c r="B62" s="0">
+        <v>1</v>
       </c>
       <c r="C62" s="0">
         <v>8.0164099999997234</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>116</v>
+      <c r="A63" s="0">
+        <v>7</v>
+      </c>
+      <c r="B63" s="0">
+        <v>1</v>
       </c>
       <c r="C63" s="0">
         <v>9.5502400000000307</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>116</v>
+      <c r="A64" s="0">
+        <v>7</v>
+      </c>
+      <c r="B64" s="0">
+        <v>1</v>
       </c>
       <c r="C64" s="0">
         <v>11.407279999999901</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>116</v>
+      <c r="A65" s="0">
+        <v>7</v>
+      </c>
+      <c r="B65" s="0">
+        <v>1</v>
       </c>
       <c r="C65" s="0">
         <v>8.5383999999999105</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>116</v>
+      <c r="A66" s="0">
+        <v>7</v>
+      </c>
+      <c r="B66" s="0">
+        <v>1</v>
       </c>
       <c r="C66" s="0">
         <v>7.0912499999999454</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>116</v>
+      <c r="A67" s="0">
+        <v>7</v>
+      </c>
+      <c r="B67" s="0">
+        <v>1</v>
       </c>
       <c r="C67" s="0">
         <v>28.580500000000029</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>116</v>
+      <c r="A68" s="0">
+        <v>7</v>
+      </c>
+      <c r="B68" s="0">
+        <v>1</v>
       </c>
       <c r="C68" s="0">
         <v>9.5717899999999645</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>116</v>
+      <c r="A69" s="0">
+        <v>7</v>
+      </c>
+      <c r="B69" s="0">
+        <v>1</v>
       </c>
       <c r="C69" s="0">
         <v>9.6502300000001924</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>116</v>
+      <c r="A70" s="0">
+        <v>7</v>
+      </c>
+      <c r="B70" s="0">
+        <v>1</v>
       </c>
       <c r="C70" s="0">
         <v>7.7888400000001639</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>116</v>
+      <c r="A71" s="0">
+        <v>7</v>
+      </c>
+      <c r="B71" s="0">
+        <v>1</v>
       </c>
       <c r="C71" s="0">
         <v>13.198339999999916</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>116</v>
+      <c r="A72" s="0">
+        <v>8</v>
+      </c>
+      <c r="B72" s="0">
+        <v>1</v>
       </c>
       <c r="C72" s="0">
         <v>3.4161800000001676</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>116</v>
+      <c r="A73" s="0">
+        <v>8</v>
+      </c>
+      <c r="B73" s="0">
+        <v>1</v>
       </c>
       <c r="C73" s="0">
         <v>2.4464200000002165</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>116</v>
+      <c r="A74" s="0">
+        <v>8</v>
+      </c>
+      <c r="B74" s="0">
+        <v>1</v>
       </c>
       <c r="C74" s="0">
         <v>3.0694699999999102</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>116</v>
+      <c r="A75" s="0">
+        <v>8</v>
+      </c>
+      <c r="B75" s="0">
+        <v>1</v>
       </c>
       <c r="C75" s="0">
         <v>2.5341600000001563</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>116</v>
+      <c r="A76" s="0">
+        <v>8</v>
+      </c>
+      <c r="B76" s="0">
+        <v>1</v>
       </c>
       <c r="C76" s="0">
         <v>8.2816499999998996</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>116</v>
+      <c r="A77" s="0">
+        <v>8</v>
+      </c>
+      <c r="B77" s="0">
+        <v>1</v>
       </c>
       <c r="C77" s="0">
         <v>3.5083099999997103</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>116</v>
+      <c r="A78" s="0">
+        <v>8</v>
+      </c>
+      <c r="B78" s="0">
+        <v>1</v>
       </c>
       <c r="C78" s="0">
         <v>2.2149099999996906</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>116</v>
+      <c r="A79" s="0">
+        <v>8</v>
+      </c>
+      <c r="B79" s="0">
+        <v>1</v>
       </c>
       <c r="C79" s="0">
         <v>1.9106900000001588</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>116</v>
+      <c r="A80" s="0">
+        <v>8</v>
+      </c>
+      <c r="B80" s="0">
+        <v>1</v>
       </c>
       <c r="C80" s="0">
         <v>4.2869700000001103</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>116</v>
+      <c r="A81" s="0">
+        <v>8</v>
+      </c>
+      <c r="B81" s="0">
+        <v>1</v>
       </c>
       <c r="C81" s="0">
         <v>2.3184799999999086</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>116</v>
+      <c r="A82" s="0">
+        <v>9</v>
+      </c>
+      <c r="B82" s="0">
+        <v>1</v>
       </c>
       <c r="C82" s="0">
         <v>6.1031819999998334</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>116</v>
+      <c r="A83" s="0">
+        <v>9</v>
+      </c>
+      <c r="B83" s="0">
+        <v>1</v>
       </c>
       <c r="C83" s="0">
         <v>4.4879939999998442</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>116</v>
+      <c r="A84" s="0">
+        <v>9</v>
+      </c>
+      <c r="B84" s="0">
+        <v>1</v>
       </c>
       <c r="C84" s="0">
         <v>3.7091491999999562</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>116</v>
+      <c r="A85" s="0">
+        <v>9</v>
+      </c>
+      <c r="B85" s="0">
+        <v>1</v>
       </c>
       <c r="C85" s="0">
         <v>7.8498818999999003</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>116</v>
+      <c r="A86" s="0">
+        <v>9</v>
+      </c>
+      <c r="B86" s="0">
+        <v>1</v>
       </c>
       <c r="C86" s="0">
         <v>3.6851159999998799</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>116</v>
+      <c r="A87" s="0">
+        <v>9</v>
+      </c>
+      <c r="B87" s="0">
+        <v>1</v>
       </c>
       <c r="C87" s="0">
         <v>3.7538529999999355</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>116</v>
+      <c r="A88" s="0">
+        <v>9</v>
+      </c>
+      <c r="B88" s="0">
+        <v>1</v>
       </c>
       <c r="C88" s="0">
         <v>3.444287999999915</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>116</v>
+      <c r="A89" s="0">
+        <v>9</v>
+      </c>
+      <c r="B89" s="0">
+        <v>1</v>
       </c>
       <c r="C89" s="0">
         <v>3.5564559999997982</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>116</v>
+      <c r="A90" s="0">
+        <v>9</v>
+      </c>
+      <c r="B90" s="0">
+        <v>1</v>
       </c>
       <c r="C90" s="0">
         <v>3.7505780000001323</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>116</v>
+      <c r="A91" s="0">
+        <v>9</v>
+      </c>
+      <c r="B91" s="0">
+        <v>1</v>
       </c>
       <c r="C91" s="0">
         <v>3.508143999999902</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>116</v>
+      <c r="A92" s="0">
+        <v>10</v>
+      </c>
+      <c r="B92" s="0">
+        <v>1</v>
       </c>
       <c r="C92" s="0">
         <v>4.026110000000017</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>116</v>
+      <c r="A93" s="0">
+        <v>10</v>
+      </c>
+      <c r="B93" s="0">
+        <v>1</v>
       </c>
       <c r="C93" s="0">
         <v>2.2981400000001031</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>116</v>
+      <c r="A94" s="0">
+        <v>10</v>
+      </c>
+      <c r="B94" s="0">
+        <v>1</v>
       </c>
       <c r="C94" s="0">
         <v>5.4777699999999641</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>116</v>
+      <c r="A95" s="0">
+        <v>10</v>
+      </c>
+      <c r="B95" s="0">
+        <v>1</v>
       </c>
       <c r="C95" s="0">
         <v>2.5075199999998858</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>116</v>
+      <c r="A96" s="0">
+        <v>10</v>
+      </c>
+      <c r="B96" s="0">
+        <v>1</v>
       </c>
       <c r="C96" s="0">
         <v>2.4646099999999933</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>116</v>
+      <c r="A97" s="0">
+        <v>10</v>
+      </c>
+      <c r="B97" s="0">
+        <v>1</v>
       </c>
       <c r="C97" s="0">
         <v>3.7926499999998668</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>116</v>
+      <c r="A98" s="0">
+        <v>10</v>
+      </c>
+      <c r="B98" s="0">
+        <v>1</v>
       </c>
       <c r="C98" s="0">
         <v>2.5610000000001492</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>116</v>
+      <c r="A99" s="0">
+        <v>10</v>
+      </c>
+      <c r="B99" s="0">
+        <v>1</v>
       </c>
       <c r="C99" s="0">
         <v>2.4637299999999414</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>116</v>
+      <c r="A100" s="0">
+        <v>10</v>
+      </c>
+      <c r="B100" s="0">
+        <v>1</v>
       </c>
       <c r="C100" s="0">
         <v>2.4855099999999766</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>116</v>
+      <c r="A101" s="0">
+        <v>10</v>
+      </c>
+      <c r="B101" s="0">
+        <v>1</v>
       </c>
       <c r="C101" s="0">
         <v>2.2952900000000227</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>116</v>
+      <c r="A102" s="0">
+        <v>11</v>
+      </c>
+      <c r="B102" s="0">
+        <v>1</v>
       </c>
       <c r="C102" s="0">
         <v>2.5323499999999513</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>116</v>
+      <c r="A103" s="0">
+        <v>11</v>
+      </c>
+      <c r="B103" s="0">
+        <v>1</v>
       </c>
       <c r="C103" s="0">
         <v>2.9803000000001703</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>116</v>
+      <c r="A104" s="0">
+        <v>11</v>
+      </c>
+      <c r="B104" s="0">
+        <v>1</v>
       </c>
       <c r="C104" s="0">
         <v>2.2032600000000002</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>116</v>
+      <c r="A105" s="0">
+        <v>11</v>
+      </c>
+      <c r="B105" s="0">
+        <v>1</v>
       </c>
       <c r="C105" s="0">
         <v>8.0695399999999609</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>116</v>
+      <c r="A106" s="0">
+        <v>11</v>
+      </c>
+      <c r="B106" s="0">
+        <v>1</v>
       </c>
       <c r="C106" s="0">
         <v>3.8345899999999347</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>116</v>
+      <c r="A107" s="0">
+        <v>11</v>
+      </c>
+      <c r="B107" s="0">
+        <v>1</v>
       </c>
       <c r="C107" s="0">
         <v>4.6839899999999943</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>116</v>
+      <c r="A108" s="0">
+        <v>11</v>
+      </c>
+      <c r="B108" s="0">
+        <v>1</v>
       </c>
       <c r="C108" s="0">
         <v>2.8016700000000583</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>116</v>
+      <c r="A109" s="0">
+        <v>11</v>
+      </c>
+      <c r="B109" s="0">
+        <v>1</v>
       </c>
       <c r="C109" s="0">
         <v>2.1221100000000206</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>116</v>
+      <c r="A110" s="0">
+        <v>11</v>
+      </c>
+      <c r="B110" s="0">
+        <v>1</v>
       </c>
       <c r="C110" s="0">
         <v>1.6149599999998827</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>116</v>
+      <c r="A111" s="0">
+        <v>11</v>
+      </c>
+      <c r="B111" s="0">
+        <v>1</v>
       </c>
       <c r="C111" s="0">
         <v>4.2666600000000017</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>116</v>
+      <c r="A112" s="0">
+        <v>12</v>
+      </c>
+      <c r="B112" s="0">
+        <v>1</v>
       </c>
       <c r="C112" s="0">
         <v>6.356860000000097</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>116</v>
+      <c r="A113" s="0">
+        <v>12</v>
+      </c>
+      <c r="B113" s="0">
+        <v>1</v>
       </c>
       <c r="C113" s="0">
         <v>3.3462600000000293</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>116</v>
+      <c r="A114" s="0">
+        <v>12</v>
+      </c>
+      <c r="B114" s="0">
+        <v>1</v>
       </c>
       <c r="C114" s="0">
         <v>3.1843699999999444</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>116</v>
+      <c r="A115" s="0">
+        <v>12</v>
+      </c>
+      <c r="B115" s="0">
+        <v>1</v>
       </c>
       <c r="C115" s="0">
         <v>3.2753000000000156</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>116</v>
+      <c r="A116" s="0">
+        <v>12</v>
+      </c>
+      <c r="B116" s="0">
+        <v>1</v>
       </c>
       <c r="C116" s="0">
         <v>3.1976300000001174</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>116</v>
+      <c r="A117" s="0">
+        <v>12</v>
+      </c>
+      <c r="B117" s="0">
+        <v>1</v>
       </c>
       <c r="C117" s="0">
         <v>3.3379899999999907</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>116</v>
+      <c r="A118" s="0">
+        <v>12</v>
+      </c>
+      <c r="B118" s="0">
+        <v>1</v>
       </c>
       <c r="C118" s="0">
         <v>7.3487999999999829</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>116</v>
+      <c r="A119" s="0">
+        <v>12</v>
+      </c>
+      <c r="B119" s="0">
+        <v>1</v>
       </c>
       <c r="C119" s="0">
         <v>3.3873600000001716</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>116</v>
+      <c r="A120" s="0">
+        <v>12</v>
+      </c>
+      <c r="B120" s="0">
+        <v>1</v>
       </c>
       <c r="C120" s="0">
         <v>3.2803200000000743</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>116</v>
+      <c r="A121" s="0">
+        <v>12</v>
+      </c>
+      <c r="B121" s="0">
+        <v>1</v>
       </c>
       <c r="C121" s="0">
         <v>3.125630000000001</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>116</v>
+      <c r="A122" s="0">
+        <v>13</v>
+      </c>
+      <c r="B122" s="0">
+        <v>1</v>
       </c>
       <c r="C122" s="0">
         <v>7.9761699999999109</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>116</v>
+      <c r="A123" s="0">
+        <v>13</v>
+      </c>
+      <c r="B123" s="0">
+        <v>1</v>
       </c>
       <c r="C123" s="0">
         <v>4.009270000000015</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>116</v>
+      <c r="A124" s="0">
+        <v>13</v>
+      </c>
+      <c r="B124" s="0">
+        <v>1</v>
       </c>
       <c r="C124" s="0">
         <v>4.0985700000001088</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>116</v>
+      <c r="A125" s="0">
+        <v>13</v>
+      </c>
+      <c r="B125" s="0">
+        <v>1</v>
       </c>
       <c r="C125" s="0">
         <v>3.4702700000000277</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>116</v>
+      <c r="A126" s="0">
+        <v>13</v>
+      </c>
+      <c r="B126" s="0">
+        <v>1</v>
       </c>
       <c r="C126" s="0">
         <v>8.1996200000000954</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>116</v>
+      <c r="A127" s="0">
+        <v>13</v>
+      </c>
+      <c r="B127" s="0">
+        <v>1</v>
       </c>
       <c r="C127" s="0">
         <v>3.8727799999999206</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>116</v>
+      <c r="A128" s="0">
+        <v>13</v>
+      </c>
+      <c r="B128" s="0">
+        <v>1</v>
       </c>
       <c r="C128" s="0">
         <v>4.3025500000001102</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>116</v>
+      <c r="A129" s="0">
+        <v>13</v>
+      </c>
+      <c r="B129" s="0">
+        <v>1</v>
       </c>
       <c r="C129" s="0">
         <v>6.7187200000000757</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>116</v>
+      <c r="A130" s="0">
+        <v>13</v>
+      </c>
+      <c r="B130" s="0">
+        <v>1</v>
       </c>
       <c r="C130" s="0">
         <v>8.5932800000000498</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>116</v>
+      <c r="A131" s="0">
+        <v>13</v>
+      </c>
+      <c r="B131" s="0">
+        <v>1</v>
       </c>
       <c r="C131" s="0">
         <v>3.403400000000147</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>116</v>
+      <c r="A132" s="0">
+        <v>14</v>
+      </c>
+      <c r="B132" s="0">
+        <v>1</v>
       </c>
       <c r="C132" s="0">
         <v>2.1612430000000131</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>116</v>
+      <c r="A133" s="0">
+        <v>14</v>
+      </c>
+      <c r="B133" s="0">
+        <v>1</v>
       </c>
       <c r="C133" s="0">
         <v>2.2877079999998386</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>116</v>
+      <c r="A134" s="0">
+        <v>14</v>
+      </c>
+      <c r="B134" s="0">
+        <v>1</v>
       </c>
       <c r="C134" s="0">
         <v>2.3248180000000502</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>116</v>
+      <c r="A135" s="0">
+        <v>14</v>
+      </c>
+      <c r="B135" s="0">
+        <v>1</v>
       </c>
       <c r="C135" s="0">
         <v>2.3237330000001748</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>116</v>
+      <c r="A136" s="0">
+        <v>14</v>
+      </c>
+      <c r="B136" s="0">
+        <v>1</v>
       </c>
       <c r="C136" s="0">
         <v>2.4404429999995045</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>116</v>
+      <c r="A137" s="0">
+        <v>14</v>
+      </c>
+      <c r="B137" s="0">
+        <v>1</v>
       </c>
       <c r="C137" s="0">
         <v>2.3801180000000386</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>116</v>
+      <c r="A138" s="0">
+        <v>14</v>
+      </c>
+      <c r="B138" s="0">
+        <v>1</v>
       </c>
       <c r="C138" s="0">
         <v>2.3351422000000639</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>116</v>
+      <c r="A139" s="0">
+        <v>14</v>
+      </c>
+      <c r="B139" s="0">
+        <v>1</v>
       </c>
       <c r="C139" s="0">
         <v>2.2489955000000919</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>116</v>
+      <c r="A140" s="0">
+        <v>14</v>
+      </c>
+      <c r="B140" s="0">
+        <v>1</v>
       </c>
       <c r="C140" s="0">
         <v>2.3441564999998263</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>116</v>
+      <c r="A141" s="0">
+        <v>14</v>
+      </c>
+      <c r="B141" s="0">
+        <v>1</v>
       </c>
       <c r="C141" s="0">
         <v>1.9857545999998365</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>116</v>
+      <c r="A142" s="0">
+        <v>15</v>
+      </c>
+      <c r="B142" s="0">
+        <v>1</v>
       </c>
       <c r="C142" s="0">
         <v>3.958770000000186</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>116</v>
+      <c r="A143" s="0">
+        <v>15</v>
+      </c>
+      <c r="B143" s="0">
+        <v>1</v>
       </c>
       <c r="C143" s="0">
         <v>6.9960499999999683</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>116</v>
+      <c r="A144" s="0">
+        <v>15</v>
+      </c>
+      <c r="B144" s="0">
+        <v>1</v>
       </c>
       <c r="C144" s="0">
         <v>3.9460799999999381</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>116</v>
+      <c r="A145" s="0">
+        <v>15</v>
+      </c>
+      <c r="B145" s="0">
+        <v>1</v>
       </c>
       <c r="C145" s="0">
         <v>6.2728799999999865</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>116</v>
+      <c r="A146" s="0">
+        <v>15</v>
+      </c>
+      <c r="B146" s="0">
+        <v>1</v>
       </c>
       <c r="C146" s="0">
         <v>5.7956400000000485</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>116</v>
+      <c r="A147" s="0">
+        <v>15</v>
+      </c>
+      <c r="B147" s="0">
+        <v>1</v>
       </c>
       <c r="C147" s="0">
         <v>6.6680900000001202</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>116</v>
+      <c r="A148" s="0">
+        <v>15</v>
+      </c>
+      <c r="B148" s="0">
+        <v>1</v>
       </c>
       <c r="C148" s="0">
         <v>4.725400000000036</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>116</v>
+      <c r="A149" s="0">
+        <v>15</v>
+      </c>
+      <c r="B149" s="0">
+        <v>1</v>
       </c>
       <c r="C149" s="0">
         <v>3.6310699999999088</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>116</v>
+      <c r="A150" s="0">
+        <v>15</v>
+      </c>
+      <c r="B150" s="0">
+        <v>1</v>
       </c>
       <c r="C150" s="0">
         <v>4.3026099999999587</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>116</v>
+      <c r="A151" s="0">
+        <v>15</v>
+      </c>
+      <c r="B151" s="0">
+        <v>1</v>
       </c>
       <c r="C151" s="0">
         <v>9.1667700000000423</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>116</v>
+      <c r="A152" s="0">
+        <v>16</v>
+      </c>
+      <c r="B152" s="0">
+        <v>1</v>
       </c>
       <c r="C152" s="0">
         <v>3.3525200000001405</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>116</v>
+      <c r="A153" s="0">
+        <v>16</v>
+      </c>
+      <c r="B153" s="0">
+        <v>1</v>
       </c>
       <c r="C153" s="0">
         <v>2.9323699999999917</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>116</v>
+      <c r="A154" s="0">
+        <v>16</v>
+      </c>
+      <c r="B154" s="0">
+        <v>1</v>
       </c>
       <c r="C154" s="0">
         <v>2.7647200000001249</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>116</v>
+      <c r="A155" s="0">
+        <v>16</v>
+      </c>
+      <c r="B155" s="0">
+        <v>1</v>
       </c>
       <c r="C155" s="0">
         <v>3.9048199999999724</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>116</v>
+      <c r="A156" s="0">
+        <v>16</v>
+      </c>
+      <c r="B156" s="0">
+        <v>1</v>
       </c>
       <c r="C156" s="0">
         <v>3.8599699999999757</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>116</v>
+      <c r="A157" s="0">
+        <v>16</v>
+      </c>
+      <c r="B157" s="0">
+        <v>1</v>
       </c>
       <c r="C157" s="0">
         <v>3.1563799999998992</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>116</v>
+      <c r="A158" s="0">
+        <v>16</v>
+      </c>
+      <c r="B158" s="0">
+        <v>1</v>
       </c>
       <c r="C158" s="0">
         <v>3.8955500000001848</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>116</v>
+      <c r="A159" s="0">
+        <v>16</v>
+      </c>
+      <c r="B159" s="0">
+        <v>1</v>
       </c>
       <c r="C159" s="0">
         <v>3.269360000000006</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>116</v>
+      <c r="A160" s="0">
+        <v>16</v>
+      </c>
+      <c r="B160" s="0">
+        <v>1</v>
       </c>
       <c r="C160" s="0">
         <v>3.5797099999999773</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>116</v>
+      <c r="A161" s="0">
+        <v>16</v>
+      </c>
+      <c r="B161" s="0">
+        <v>1</v>
       </c>
       <c r="C161" s="0">
         <v>2.7378499999999804</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>116</v>
+      <c r="A162" s="0">
+        <v>17</v>
+      </c>
+      <c r="B162" s="0">
+        <v>1</v>
       </c>
       <c r="C162" s="0">
         <v>7.2088900000003377</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>116</v>
+      <c r="A163" s="0">
+        <v>17</v>
+      </c>
+      <c r="B163" s="0">
+        <v>1</v>
       </c>
       <c r="C163" s="0">
         <v>8.665190000000166</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>116</v>
+      <c r="A164" s="0">
+        <v>17</v>
+      </c>
+      <c r="B164" s="0">
+        <v>1</v>
       </c>
       <c r="C164" s="0">
         <v>7.0033199999998033</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>116</v>
+      <c r="A165" s="0">
+        <v>17</v>
+      </c>
+      <c r="B165" s="0">
+        <v>1</v>
       </c>
       <c r="C165" s="0">
         <v>6.7792500000000473</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>116</v>
+      <c r="A166" s="0">
+        <v>17</v>
+      </c>
+      <c r="B166" s="0">
+        <v>1</v>
       </c>
       <c r="C166" s="0">
         <v>7.3721299999997427</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>116</v>
+      <c r="A167" s="0">
+        <v>17</v>
+      </c>
+      <c r="B167" s="0">
+        <v>1</v>
       </c>
       <c r="C167" s="0">
         <v>8.7641300000000228</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>116</v>
+      <c r="A168" s="0">
+        <v>17</v>
+      </c>
+      <c r="B168" s="0">
+        <v>1</v>
       </c>
       <c r="C168" s="0">
         <v>10.668780000000424</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>116</v>
+      <c r="A169" s="0">
+        <v>17</v>
+      </c>
+      <c r="B169" s="0">
+        <v>1</v>
       </c>
       <c r="C169" s="0">
         <v>6.1140800000002855</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>116</v>
+      <c r="A170" s="0">
+        <v>17</v>
+      </c>
+      <c r="B170" s="0">
+        <v>1</v>
       </c>
       <c r="C170" s="0">
         <v>8.6823899999999412</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>116</v>
+      <c r="A171" s="0">
+        <v>17</v>
+      </c>
+      <c r="B171" s="0">
+        <v>1</v>
       </c>
       <c r="C171" s="0">
         <v>6.3510900000001129</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>116</v>
+      <c r="A172" s="0">
+        <v>18</v>
+      </c>
+      <c r="B172" s="0">
+        <v>1</v>
       </c>
       <c r="C172" s="0">
         <v>6.3188299999999344</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>116</v>
+      <c r="A173" s="0">
+        <v>18</v>
+      </c>
+      <c r="B173" s="0">
+        <v>1</v>
       </c>
       <c r="C173" s="0">
         <v>7.6651699999999892</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>116</v>
+      <c r="A174" s="0">
+        <v>18</v>
+      </c>
+      <c r="B174" s="0">
+        <v>1</v>
       </c>
       <c r="C174" s="0">
         <v>8.4560200000000805</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>116</v>
+      <c r="A175" s="0">
+        <v>18</v>
+      </c>
+      <c r="B175" s="0">
+        <v>1</v>
       </c>
       <c r="C175" s="0">
         <v>8.318520000000035</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>116</v>
+      <c r="A176" s="0">
+        <v>18</v>
+      </c>
+      <c r="B176" s="0">
+        <v>1</v>
       </c>
       <c r="C176" s="0">
         <v>5.1950299999998606</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>116</v>
+      <c r="A177" s="0">
+        <v>18</v>
+      </c>
+      <c r="B177" s="0">
+        <v>1</v>
       </c>
       <c r="C177" s="0">
         <v>10.196790000000192</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>116</v>
+      <c r="A178" s="0">
+        <v>18</v>
+      </c>
+      <c r="B178" s="0">
+        <v>1</v>
       </c>
       <c r="C178" s="0">
         <v>10.85577000000012</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>116</v>
+      <c r="A179" s="0">
+        <v>18</v>
+      </c>
+      <c r="B179" s="0">
+        <v>1</v>
       </c>
       <c r="C179" s="0">
         <v>5.6948999999999614</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>116</v>
+      <c r="A180" s="0">
+        <v>18</v>
+      </c>
+      <c r="B180" s="0">
+        <v>1</v>
       </c>
       <c r="C180" s="0">
         <v>5.94141999999988</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>116</v>
+      <c r="A181" s="0">
+        <v>18</v>
+      </c>
+      <c r="B181" s="0">
+        <v>1</v>
       </c>
       <c r="C181" s="0">
         <v>5.6085899999998219</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>117</v>
+      <c r="A182" s="0">
+        <v>1</v>
+      </c>
+      <c r="B182" s="0">
+        <v>3</v>
       </c>
       <c r="C182" s="0">
         <v>12.281590000000051</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>117</v>
+      <c r="A183" s="0">
+        <v>1</v>
+      </c>
+      <c r="B183" s="0">
+        <v>3</v>
       </c>
       <c r="C183" s="0">
         <v>10.302689999999984</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>117</v>
+      <c r="A184" s="0">
+        <v>1</v>
+      </c>
+      <c r="B184" s="0">
+        <v>3</v>
       </c>
       <c r="C184" s="0">
         <v>11.916720000000169</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>117</v>
+      <c r="A185" s="0">
+        <v>1</v>
+      </c>
+      <c r="B185" s="0">
+        <v>3</v>
       </c>
       <c r="C185" s="0">
         <v>15.592819999999847</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>117</v>
+      <c r="A186" s="0">
+        <v>1</v>
+      </c>
+      <c r="B186" s="0">
+        <v>3</v>
       </c>
       <c r="C186" s="0">
         <v>7.8205200000002151</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>117</v>
+      <c r="A187" s="0">
+        <v>1</v>
+      </c>
+      <c r="B187" s="0">
+        <v>3</v>
       </c>
       <c r="C187" s="0">
         <v>12.396839999999884</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>117</v>
+      <c r="A188" s="0">
+        <v>1</v>
+      </c>
+      <c r="B188" s="0">
+        <v>3</v>
       </c>
       <c r="C188" s="0">
         <v>19.262429999999767</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>117</v>
+      <c r="A189" s="0">
+        <v>1</v>
+      </c>
+      <c r="B189" s="0">
+        <v>3</v>
       </c>
       <c r="C189" s="0">
         <v>20.836279999999988</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>117</v>
+      <c r="A190" s="0">
+        <v>1</v>
+      </c>
+      <c r="B190" s="0">
+        <v>3</v>
       </c>
       <c r="C190" s="0">
         <v>7.5301400000003014</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>117</v>
+      <c r="A191" s="0">
+        <v>1</v>
+      </c>
+      <c r="B191" s="0">
+        <v>3</v>
       </c>
       <c r="C191" s="0">
         <v>9.3148500000002059</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>117</v>
+      <c r="A192" s="0">
+        <v>2</v>
+      </c>
+      <c r="B192" s="0">
+        <v>3</v>
       </c>
       <c r="C192" s="0">
         <v>4.3073899999999412</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>117</v>
+      <c r="A193" s="0">
+        <v>2</v>
+      </c>
+      <c r="B193" s="0">
+        <v>3</v>
       </c>
       <c r="C193" s="0">
         <v>3.7177500000000236</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>117</v>
+      <c r="A194" s="0">
+        <v>2</v>
+      </c>
+      <c r="B194" s="0">
+        <v>3</v>
       </c>
       <c r="C194" s="0">
         <v>3.8274300000000494</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>117</v>
+      <c r="A195" s="0">
+        <v>2</v>
+      </c>
+      <c r="B195" s="0">
+        <v>3</v>
       </c>
       <c r="C195" s="0">
         <v>4.0227099999999609</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>117</v>
+      <c r="A196" s="0">
+        <v>2</v>
+      </c>
+      <c r="B196" s="0">
+        <v>3</v>
       </c>
       <c r="C196" s="0">
         <v>3.5207100000000082</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>117</v>
+      <c r="A197" s="0">
+        <v>2</v>
+      </c>
+      <c r="B197" s="0">
+        <v>3</v>
       </c>
       <c r="C197" s="0">
         <v>3.3543099999999413</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>117</v>
+      <c r="A198" s="0">
+        <v>2</v>
+      </c>
+      <c r="B198" s="0">
+        <v>3</v>
       </c>
       <c r="C198" s="0">
         <v>2.7990600000000541</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>117</v>
+      <c r="A199" s="0">
+        <v>2</v>
+      </c>
+      <c r="B199" s="0">
+        <v>3</v>
       </c>
       <c r="C199" s="0">
         <v>2.7209700000000794</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>117</v>
+      <c r="A200" s="0">
+        <v>2</v>
+      </c>
+      <c r="B200" s="0">
+        <v>3</v>
       </c>
       <c r="C200" s="0">
         <v>2.8919300000000021</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>117</v>
+      <c r="A201" s="0">
+        <v>2</v>
+      </c>
+      <c r="B201" s="0">
+        <v>3</v>
       </c>
       <c r="C201" s="0">
         <v>2.9231099999999515</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>117</v>
+      <c r="A202" s="0">
+        <v>3</v>
+      </c>
+      <c r="B202" s="0">
+        <v>3</v>
       </c>
       <c r="C202" s="0">
         <v>5.2548099999999067</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>117</v>
+      <c r="A203" s="0">
+        <v>3</v>
+      </c>
+      <c r="B203" s="0">
+        <v>3</v>
       </c>
       <c r="C203" s="0">
         <v>5.1516900000001442</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>117</v>
+      <c r="A204" s="0">
+        <v>3</v>
+      </c>
+      <c r="B204" s="0">
+        <v>3</v>
       </c>
       <c r="C204" s="0">
         <v>6.3374499999999898</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>117</v>
+      <c r="A205" s="0">
+        <v>3</v>
+      </c>
+      <c r="B205" s="0">
+        <v>3</v>
       </c>
       <c r="C205" s="0">
         <v>5.1630299999997078</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>117</v>
+      <c r="A206" s="0">
+        <v>3</v>
+      </c>
+      <c r="B206" s="0">
+        <v>3</v>
       </c>
       <c r="C206" s="0">
         <v>6.9298699999999371</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>117</v>
+      <c r="A207" s="0">
+        <v>3</v>
+      </c>
+      <c r="B207" s="0">
+        <v>3</v>
       </c>
       <c r="C207" s="0">
         <v>4.9624400000002424</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>117</v>
+      <c r="A208" s="0">
+        <v>3</v>
+      </c>
+      <c r="B208" s="0">
+        <v>3</v>
       </c>
       <c r="C208" s="0">
         <v>5.0953600000002552</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>117</v>
+      <c r="A209" s="0">
+        <v>3</v>
+      </c>
+      <c r="B209" s="0">
+        <v>3</v>
       </c>
       <c r="C209" s="0">
         <v>5.5232299999997849</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>117</v>
+      <c r="A210" s="0">
+        <v>3</v>
+      </c>
+      <c r="B210" s="0">
+        <v>3</v>
       </c>
       <c r="C210" s="0">
         <v>5.9583800000000338</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>117</v>
+      <c r="A211" s="0">
+        <v>3</v>
+      </c>
+      <c r="B211" s="0">
+        <v>3</v>
       </c>
       <c r="C211" s="0">
         <v>5.0527799999999843</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>117</v>
+      <c r="A212" s="0">
+        <v>4</v>
+      </c>
+      <c r="B212" s="0">
+        <v>3</v>
       </c>
       <c r="C212" s="0">
         <v>3.5037199999999302</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>117</v>
+      <c r="A213" s="0">
+        <v>4</v>
+      </c>
+      <c r="B213" s="0">
+        <v>3</v>
       </c>
       <c r="C213" s="0">
         <v>3.2984099999998762</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>117</v>
+      <c r="A214" s="0">
+        <v>4</v>
+      </c>
+      <c r="B214" s="0">
+        <v>3</v>
       </c>
       <c r="C214" s="0">
         <v>3.114390000000185</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>117</v>
+      <c r="A215" s="0">
+        <v>4</v>
+      </c>
+      <c r="B215" s="0">
+        <v>3</v>
       </c>
       <c r="C215" s="0">
         <v>3.066820000000007</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>117</v>
+      <c r="A216" s="0">
+        <v>4</v>
+      </c>
+      <c r="B216" s="0">
+        <v>3</v>
       </c>
       <c r="C216" s="0">
         <v>2.9362599999999475</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>117</v>
+      <c r="A217" s="0">
+        <v>4</v>
+      </c>
+      <c r="B217" s="0">
+        <v>3</v>
       </c>
       <c r="C217" s="0">
         <v>3.0568200000000161</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>117</v>
+      <c r="A218" s="0">
+        <v>4</v>
+      </c>
+      <c r="B218" s="0">
+        <v>3</v>
       </c>
       <c r="C218" s="0">
         <v>2.6625399999998081</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>117</v>
+      <c r="A219" s="0">
+        <v>4</v>
+      </c>
+      <c r="B219" s="0">
+        <v>3</v>
       </c>
       <c r="C219" s="0">
         <v>2.5302200000000994</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>117</v>
+      <c r="A220" s="0">
+        <v>4</v>
+      </c>
+      <c r="B220" s="0">
+        <v>3</v>
       </c>
       <c r="C220" s="0">
         <v>2.6766600000000835</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>117</v>
+      <c r="A221" s="0">
+        <v>4</v>
+      </c>
+      <c r="B221" s="0">
+        <v>3</v>
       </c>
       <c r="C221" s="0">
         <v>2.5305599999999231</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>117</v>
+      <c r="A222" s="0">
+        <v>5</v>
+      </c>
+      <c r="B222" s="0">
+        <v>3</v>
       </c>
       <c r="C222" s="0">
         <v>6.4289899999998852</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>117</v>
+      <c r="A223" s="0">
+        <v>5</v>
+      </c>
+      <c r="B223" s="0">
+        <v>3</v>
       </c>
       <c r="C223" s="0">
         <v>5.7222400000000562</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>117</v>
+      <c r="A224" s="0">
+        <v>5</v>
+      </c>
+      <c r="B224" s="0">
+        <v>3</v>
       </c>
       <c r="C224" s="0">
         <v>5.4902099999999336</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>117</v>
+      <c r="A225" s="0">
+        <v>5</v>
+      </c>
+      <c r="B225" s="0">
+        <v>3</v>
       </c>
       <c r="C225" s="0">
         <v>4.9100800000001072</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>117</v>
+      <c r="A226" s="0">
+        <v>5</v>
+      </c>
+      <c r="B226" s="0">
+        <v>3</v>
       </c>
       <c r="C226" s="0">
         <v>5.0849299999999857</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>117</v>
+      <c r="A227" s="0">
+        <v>5</v>
+      </c>
+      <c r="B227" s="0">
+        <v>3</v>
       </c>
       <c r="C227" s="0">
         <v>5.3671899999999368</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>117</v>
+      <c r="A228" s="0">
+        <v>5</v>
+      </c>
+      <c r="B228" s="0">
+        <v>3</v>
       </c>
       <c r="C228" s="0">
         <v>4.9094099999999798</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>117</v>
+      <c r="A229" s="0">
+        <v>5</v>
+      </c>
+      <c r="B229" s="0">
+        <v>3</v>
       </c>
       <c r="C229" s="0">
         <v>4.4987599999999475</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>117</v>
+      <c r="A230" s="0">
+        <v>5</v>
+      </c>
+      <c r="B230" s="0">
+        <v>3</v>
       </c>
       <c r="C230" s="0">
         <v>4.3267800000000989</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>117</v>
+      <c r="A231" s="0">
+        <v>5</v>
+      </c>
+      <c r="B231" s="0">
+        <v>3</v>
       </c>
       <c r="C231" s="0">
         <v>4.6895700000000033</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>117</v>
+      <c r="A232" s="0">
+        <v>6</v>
+      </c>
+      <c r="B232" s="0">
+        <v>3</v>
       </c>
       <c r="C232" s="0">
         <v>5.1432199999999284</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>117</v>
+      <c r="A233" s="0">
+        <v>6</v>
+      </c>
+      <c r="B233" s="0">
+        <v>3</v>
       </c>
       <c r="C233" s="0">
         <v>2.5801000000001295</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>117</v>
+      <c r="A234" s="0">
+        <v>6</v>
+      </c>
+      <c r="B234" s="0">
+        <v>3</v>
       </c>
       <c r="C234" s="0">
         <v>3.9305699999999888</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>117</v>
+      <c r="A235" s="0">
+        <v>6</v>
+      </c>
+      <c r="B235" s="0">
+        <v>3</v>
       </c>
       <c r="C235" s="0">
         <v>2.5515900000000329</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>117</v>
+      <c r="A236" s="0">
+        <v>6</v>
+      </c>
+      <c r="B236" s="0">
+        <v>3</v>
       </c>
       <c r="C236" s="0">
         <v>2.2747000000001663</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>117</v>
+      <c r="A237" s="0">
+        <v>6</v>
+      </c>
+      <c r="B237" s="0">
+        <v>3</v>
       </c>
       <c r="C237" s="0">
         <v>3.7273199999999633</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>117</v>
+      <c r="A238" s="0">
+        <v>6</v>
+      </c>
+      <c r="B238" s="0">
+        <v>3</v>
       </c>
       <c r="C238" s="0">
         <v>2.2668699999999262</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>117</v>
+      <c r="A239" s="0">
+        <v>6</v>
+      </c>
+      <c r="B239" s="0">
+        <v>3</v>
       </c>
       <c r="C239" s="0">
         <v>2.1973299999999654</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>117</v>
+      <c r="A240" s="0">
+        <v>6</v>
+      </c>
+      <c r="B240" s="0">
+        <v>3</v>
       </c>
       <c r="C240" s="0">
         <v>2.2813899999998739</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>117</v>
+      <c r="A241" s="0">
+        <v>6</v>
+      </c>
+      <c r="B241" s="0">
+        <v>3</v>
       </c>
       <c r="C241" s="0">
         <v>5.9596299999998337</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>117</v>
+      <c r="A242" s="0">
+        <v>7</v>
+      </c>
+      <c r="B242" s="0">
+        <v>3</v>
       </c>
       <c r="C242" s="0">
         <v>5.4793399999998655</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>117</v>
+      <c r="A243" s="0">
+        <v>7</v>
+      </c>
+      <c r="B243" s="0">
+        <v>3</v>
       </c>
       <c r="C243" s="0">
         <v>8.2749100000000908</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>117</v>
+      <c r="A244" s="0">
+        <v>7</v>
+      </c>
+      <c r="B244" s="0">
+        <v>3</v>
       </c>
       <c r="C244" s="0">
         <v>4.6811499999998887</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>117</v>
+      <c r="A245" s="0">
+        <v>7</v>
+      </c>
+      <c r="B245" s="0">
+        <v>3</v>
       </c>
       <c r="C245" s="0">
         <v>4.7105499999997846</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>117</v>
+      <c r="A246" s="0">
+        <v>7</v>
+      </c>
+      <c r="B246" s="0">
+        <v>3</v>
       </c>
       <c r="C246" s="0">
         <v>3.8223299999999654</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>117</v>
+      <c r="A247" s="0">
+        <v>7</v>
+      </c>
+      <c r="B247" s="0">
+        <v>3</v>
       </c>
       <c r="C247" s="0">
         <v>6.7145300000001953</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>117</v>
+      <c r="A248" s="0">
+        <v>7</v>
+      </c>
+      <c r="B248" s="0">
+        <v>3</v>
       </c>
       <c r="C248" s="0">
         <v>9.2761600000003455</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>117</v>
+      <c r="A249" s="0">
+        <v>7</v>
+      </c>
+      <c r="B249" s="0">
+        <v>3</v>
       </c>
       <c r="C249" s="0">
         <v>6.6457900000000336</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>117</v>
+      <c r="A250" s="0">
+        <v>7</v>
+      </c>
+      <c r="B250" s="0">
+        <v>3</v>
       </c>
       <c r="C250" s="0">
         <v>7.052719999999681</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>117</v>
+      <c r="A251" s="0">
+        <v>7</v>
+      </c>
+      <c r="B251" s="0">
+        <v>3</v>
       </c>
       <c r="C251" s="0">
         <v>7.9541899999999259</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>117</v>
+      <c r="A252" s="0">
+        <v>8</v>
+      </c>
+      <c r="B252" s="0">
+        <v>3</v>
       </c>
       <c r="C252" s="0">
         <v>4.0641400000001795</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>117</v>
+      <c r="A253" s="0">
+        <v>8</v>
+      </c>
+      <c r="B253" s="0">
+        <v>3</v>
       </c>
       <c r="C253" s="0">
         <v>3.9854199999999764</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>117</v>
+      <c r="A254" s="0">
+        <v>8</v>
+      </c>
+      <c r="B254" s="0">
+        <v>3</v>
       </c>
       <c r="C254" s="0">
         <v>5.9273400000001857</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>117</v>
+      <c r="A255" s="0">
+        <v>8</v>
+      </c>
+      <c r="B255" s="0">
+        <v>3</v>
       </c>
       <c r="C255" s="0">
         <v>3.2475899999999456</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>117</v>
+      <c r="A256" s="0">
+        <v>8</v>
+      </c>
+      <c r="B256" s="0">
+        <v>3</v>
       </c>
       <c r="C256" s="0">
         <v>5.5982500000000073</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>117</v>
+      <c r="A257" s="0">
+        <v>8</v>
+      </c>
+      <c r="B257" s="0">
+        <v>3</v>
       </c>
       <c r="C257" s="0">
         <v>2.1181399999998121</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>117</v>
+      <c r="A258" s="0">
+        <v>8</v>
+      </c>
+      <c r="B258" s="0">
+        <v>3</v>
       </c>
       <c r="C258" s="0">
         <v>8.3758599999998751</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>117</v>
+      <c r="A259" s="0">
+        <v>8</v>
+      </c>
+      <c r="B259" s="0">
+        <v>3</v>
       </c>
       <c r="C259" s="0">
         <v>3.4535300000000007</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>117</v>
+      <c r="A260" s="0">
+        <v>8</v>
+      </c>
+      <c r="B260" s="0">
+        <v>3</v>
       </c>
       <c r="C260" s="0">
         <v>2.5345600000000559</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>117</v>
+      <c r="A261" s="0">
+        <v>8</v>
+      </c>
+      <c r="B261" s="0">
+        <v>3</v>
       </c>
       <c r="C261" s="0">
         <v>2.3655800000001364</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>117</v>
+      <c r="A262" s="0">
+        <v>9</v>
+      </c>
+      <c r="B262" s="0">
+        <v>3</v>
       </c>
       <c r="C262" s="0">
         <v>6.3549393000000691</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>117</v>
+      <c r="A263" s="0">
+        <v>9</v>
+      </c>
+      <c r="B263" s="0">
+        <v>3</v>
       </c>
       <c r="C263" s="0">
         <v>4.9050905999999941</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>117</v>
+      <c r="A264" s="0">
+        <v>9</v>
+      </c>
+      <c r="B264" s="0">
+        <v>3</v>
       </c>
       <c r="C264" s="0">
         <v>3.6622411000000739</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>117</v>
+      <c r="A265" s="0">
+        <v>9</v>
+      </c>
+      <c r="B265" s="0">
+        <v>3</v>
       </c>
       <c r="C265" s="0">
         <v>3.3673332000000755</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>117</v>
+      <c r="A266" s="0">
+        <v>9</v>
+      </c>
+      <c r="B266" s="0">
+        <v>3</v>
       </c>
       <c r="C266" s="0">
         <v>3.191540600000053</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>117</v>
+      <c r="A267" s="0">
+        <v>9</v>
+      </c>
+      <c r="B267" s="0">
+        <v>3</v>
       </c>
       <c r="C267" s="0">
         <v>3.2176069999998163</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>117</v>
+      <c r="A268" s="0">
+        <v>9</v>
+      </c>
+      <c r="B268" s="0">
+        <v>3</v>
       </c>
       <c r="C268" s="0">
         <v>4.1530439999999089</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>117</v>
+      <c r="A269" s="0">
+        <v>9</v>
+      </c>
+      <c r="B269" s="0">
+        <v>3</v>
       </c>
       <c r="C269" s="0">
         <v>4.5157230000004347</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>117</v>
+      <c r="A270" s="0">
+        <v>9</v>
+      </c>
+      <c r="B270" s="0">
+        <v>3</v>
       </c>
       <c r="C270" s="0">
         <v>3.74522799999977</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B271" s="0" t="s">
-        <v>117</v>
+      <c r="A271" s="0">
+        <v>9</v>
+      </c>
+      <c r="B271" s="0">
+        <v>3</v>
       </c>
       <c r="C271" s="0">
         <v>3.8974490000000515</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>117</v>
+      <c r="A272" s="0">
+        <v>10</v>
+      </c>
+      <c r="B272" s="0">
+        <v>3</v>
       </c>
       <c r="C272" s="0">
         <v>2.6012100000000373</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>117</v>
+      <c r="A273" s="0">
+        <v>10</v>
+      </c>
+      <c r="B273" s="0">
+        <v>3</v>
       </c>
       <c r="C273" s="0">
         <v>5.4644499999999425</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>117</v>
+      <c r="A274" s="0">
+        <v>10</v>
+      </c>
+      <c r="B274" s="0">
+        <v>3</v>
       </c>
       <c r="C274" s="0">
         <v>2.3349800000000869</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>117</v>
+      <c r="A275" s="0">
+        <v>10</v>
+      </c>
+      <c r="B275" s="0">
+        <v>3</v>
       </c>
       <c r="C275" s="0">
         <v>2.3113699999998971</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>117</v>
+      <c r="A276" s="0">
+        <v>10</v>
+      </c>
+      <c r="B276" s="0">
+        <v>3</v>
       </c>
       <c r="C276" s="0">
         <v>2.3632099999999809</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>117</v>
+      <c r="A277" s="0">
+        <v>10</v>
+      </c>
+      <c r="B277" s="0">
+        <v>3</v>
       </c>
       <c r="C277" s="0">
         <v>2.5316800000000512</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>117</v>
+      <c r="A278" s="0">
+        <v>10</v>
+      </c>
+      <c r="B278" s="0">
+        <v>3</v>
       </c>
       <c r="C278" s="0">
         <v>2.4885300000000825</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>117</v>
+      <c r="A279" s="0">
+        <v>10</v>
+      </c>
+      <c r="B279" s="0">
+        <v>3</v>
       </c>
       <c r="C279" s="0">
         <v>2.4202199999999721</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>117</v>
+      <c r="A280" s="0">
+        <v>10</v>
+      </c>
+      <c r="B280" s="0">
+        <v>3</v>
       </c>
       <c r="C280" s="0">
         <v>2.2167300000000978</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>117</v>
+      <c r="A281" s="0">
+        <v>10</v>
+      </c>
+      <c r="B281" s="0">
+        <v>3</v>
       </c>
       <c r="C281" s="0">
         <v>2.1482899999998608</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>117</v>
+      <c r="A282" s="0">
+        <v>11</v>
+      </c>
+      <c r="B282" s="0">
+        <v>3</v>
       </c>
       <c r="C282" s="0">
         <v>3.3777500000001055</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>117</v>
+      <c r="A283" s="0">
+        <v>11</v>
+      </c>
+      <c r="B283" s="0">
+        <v>3</v>
       </c>
       <c r="C283" s="0">
         <v>4.7671499999999014</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>117</v>
+      <c r="A284" s="0">
+        <v>11</v>
+      </c>
+      <c r="B284" s="0">
+        <v>3</v>
       </c>
       <c r="C284" s="0">
         <v>3.050019999999904</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>117</v>
+      <c r="A285" s="0">
+        <v>11</v>
+      </c>
+      <c r="B285" s="0">
+        <v>3</v>
       </c>
       <c r="C285" s="0">
         <v>4.2246700000000601</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>117</v>
+      <c r="A286" s="0">
+        <v>11</v>
+      </c>
+      <c r="B286" s="0">
+        <v>3</v>
       </c>
       <c r="C286" s="0">
         <v>6.1545900000000984</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>117</v>
+      <c r="A287" s="0">
+        <v>11</v>
+      </c>
+      <c r="B287" s="0">
+        <v>3</v>
       </c>
       <c r="C287" s="0">
         <v>3.0653899999999794</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>117</v>
+      <c r="A288" s="0">
+        <v>11</v>
+      </c>
+      <c r="B288" s="0">
+        <v>3</v>
       </c>
       <c r="C288" s="0">
         <v>2.7709300000001349</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>117</v>
+      <c r="A289" s="0">
+        <v>11</v>
+      </c>
+      <c r="B289" s="0">
+        <v>3</v>
       </c>
       <c r="C289" s="0">
         <v>2.6573100000000522</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>117</v>
+      <c r="A290" s="0">
+        <v>11</v>
+      </c>
+      <c r="B290" s="0">
+        <v>3</v>
       </c>
       <c r="C290" s="0">
         <v>5.0979600000000573</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>117</v>
+      <c r="A291" s="0">
+        <v>11</v>
+      </c>
+      <c r="B291" s="0">
+        <v>3</v>
       </c>
       <c r="C291" s="0">
         <v>2.5329200000001038</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>117</v>
+      <c r="A292" s="0">
+        <v>12</v>
+      </c>
+      <c r="B292" s="0">
+        <v>3</v>
       </c>
       <c r="C292" s="0">
         <v>5.4794799999999668</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>117</v>
+      <c r="A293" s="0">
+        <v>12</v>
+      </c>
+      <c r="B293" s="0">
+        <v>3</v>
       </c>
       <c r="C293" s="0">
         <v>3.3023500000001604</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>117</v>
+      <c r="A294" s="0">
+        <v>12</v>
+      </c>
+      <c r="B294" s="0">
+        <v>3</v>
       </c>
       <c r="C294" s="0">
         <v>3.3900599999999486</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>117</v>
+      <c r="A295" s="0">
+        <v>12</v>
+      </c>
+      <c r="B295" s="0">
+        <v>3</v>
       </c>
       <c r="C295" s="0">
         <v>3.112329999999929</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>117</v>
+      <c r="A296" s="0">
+        <v>12</v>
+      </c>
+      <c r="B296" s="0">
+        <v>3</v>
       </c>
       <c r="C296" s="0">
         <v>3.6691500000001724</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>117</v>
+      <c r="A297" s="0">
+        <v>12</v>
+      </c>
+      <c r="B297" s="0">
+        <v>3</v>
       </c>
       <c r="C297" s="0">
         <v>2.9215699999999742</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>117</v>
+      <c r="A298" s="0">
+        <v>12</v>
+      </c>
+      <c r="B298" s="0">
+        <v>3</v>
       </c>
       <c r="C298" s="0">
         <v>3.0390899999999874</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>117</v>
+      <c r="A299" s="0">
+        <v>12</v>
+      </c>
+      <c r="B299" s="0">
+        <v>3</v>
       </c>
       <c r="C299" s="0">
         <v>2.6743199999998524</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>117</v>
+      <c r="A300" s="0">
+        <v>12</v>
+      </c>
+      <c r="B300" s="0">
+        <v>3</v>
       </c>
       <c r="C300" s="0">
         <v>2.7063499999999294</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>117</v>
+      <c r="A301" s="0">
+        <v>12</v>
+      </c>
+      <c r="B301" s="0">
+        <v>3</v>
       </c>
       <c r="C301" s="0">
         <v>6.9524100000000999</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>117</v>
+      <c r="A302" s="0">
+        <v>13</v>
+      </c>
+      <c r="B302" s="0">
+        <v>3</v>
       </c>
       <c r="C302" s="0">
         <v>4.3980200000000877</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>117</v>
+      <c r="A303" s="0">
+        <v>13</v>
+      </c>
+      <c r="B303" s="0">
+        <v>3</v>
       </c>
       <c r="C303" s="0">
         <v>6.1331299999999374</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B304" s="0" t="s">
-        <v>117</v>
+      <c r="A304" s="0">
+        <v>13</v>
+      </c>
+      <c r="B304" s="0">
+        <v>3</v>
       </c>
       <c r="C304" s="0">
         <v>7.7716199999999844</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B305" s="0" t="s">
-        <v>117</v>
+      <c r="A305" s="0">
+        <v>13</v>
+      </c>
+      <c r="B305" s="0">
+        <v>3</v>
       </c>
       <c r="C305" s="0">
         <v>7.753210000000081</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>117</v>
+      <c r="A306" s="0">
+        <v>13</v>
+      </c>
+      <c r="B306" s="0">
+        <v>3</v>
       </c>
       <c r="C306" s="0">
         <v>4.7591999999999643</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>117</v>
+      <c r="A307" s="0">
+        <v>13</v>
+      </c>
+      <c r="B307" s="0">
+        <v>3</v>
       </c>
       <c r="C307" s="0">
         <v>4.4870899999998528</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>117</v>
+      <c r="A308" s="0">
+        <v>13</v>
+      </c>
+      <c r="B308" s="0">
+        <v>3</v>
       </c>
       <c r="C308" s="0">
         <v>3.7771999999999935</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>117</v>
+      <c r="A309" s="0">
+        <v>13</v>
+      </c>
+      <c r="B309" s="0">
+        <v>3</v>
       </c>
       <c r="C309" s="0">
         <v>3.97171000000003</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B310" s="0" t="s">
-        <v>117</v>
+      <c r="A310" s="0">
+        <v>13</v>
+      </c>
+      <c r="B310" s="0">
+        <v>3</v>
       </c>
       <c r="C310" s="0">
         <v>4.5779700000000503</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>117</v>
+      <c r="A311" s="0">
+        <v>13</v>
+      </c>
+      <c r="B311" s="0">
+        <v>3</v>
       </c>
       <c r="C311" s="0">
         <v>5.4072100000000773</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B312" s="0" t="s">
-        <v>117</v>
+      <c r="A312" s="0">
+        <v>14</v>
+      </c>
+      <c r="B312" s="0">
+        <v>3</v>
       </c>
       <c r="C312" s="0">
         <v>2.9069500000000517</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B313" s="0" t="s">
-        <v>117</v>
+      <c r="A313" s="0">
+        <v>14</v>
+      </c>
+      <c r="B313" s="0">
+        <v>3</v>
       </c>
       <c r="C313" s="0">
         <v>2.7947779999999511</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>117</v>
+      <c r="A314" s="0">
+        <v>14</v>
+      </c>
+      <c r="B314" s="0">
+        <v>3</v>
       </c>
       <c r="C314" s="0">
         <v>2.4748859999999695</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>117</v>
+      <c r="A315" s="0">
+        <v>14</v>
+      </c>
+      <c r="B315" s="0">
+        <v>3</v>
       </c>
       <c r="C315" s="0">
         <v>2.4405219999998735</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>117</v>
+      <c r="A316" s="0">
+        <v>14</v>
+      </c>
+      <c r="B316" s="0">
+        <v>3</v>
       </c>
       <c r="C316" s="0">
         <v>3.6966269999998076</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B317" s="0" t="s">
-        <v>117</v>
+      <c r="A317" s="0">
+        <v>14</v>
+      </c>
+      <c r="B317" s="0">
+        <v>3</v>
       </c>
       <c r="C317" s="0">
         <v>2.6277589999999691</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B318" s="0" t="s">
-        <v>117</v>
+      <c r="A318" s="0">
+        <v>14</v>
+      </c>
+      <c r="B318" s="0">
+        <v>3</v>
       </c>
       <c r="C318" s="0">
         <v>2.501893999999993</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>117</v>
+      <c r="A319" s="0">
+        <v>14</v>
+      </c>
+      <c r="B319" s="0">
+        <v>3</v>
       </c>
       <c r="C319" s="0">
         <v>2.2817489999997633</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B320" s="0" t="s">
-        <v>117</v>
+      <c r="A320" s="0">
+        <v>14</v>
+      </c>
+      <c r="B320" s="0">
+        <v>3</v>
       </c>
       <c r="C320" s="0">
         <v>2.3403769999999895</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>117</v>
+      <c r="A321" s="0">
+        <v>14</v>
+      </c>
+      <c r="B321" s="0">
+        <v>3</v>
       </c>
       <c r="C321" s="0">
         <v>2.3215700000000652</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>117</v>
+      <c r="A322" s="0">
+        <v>15</v>
+      </c>
+      <c r="B322" s="0">
+        <v>3</v>
       </c>
       <c r="C322" s="0">
         <v>3.6279899999999543</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>117</v>
+      <c r="A323" s="0">
+        <v>15</v>
+      </c>
+      <c r="B323" s="0">
+        <v>3</v>
       </c>
       <c r="C323" s="0">
         <v>12.184390000000121</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>117</v>
+      <c r="A324" s="0">
+        <v>15</v>
+      </c>
+      <c r="B324" s="0">
+        <v>3</v>
       </c>
       <c r="C324" s="0">
         <v>17.316679999999906</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B325" s="0" t="s">
-        <v>117</v>
+      <c r="A325" s="0">
+        <v>15</v>
+      </c>
+      <c r="B325" s="0">
+        <v>3</v>
       </c>
       <c r="C325" s="0">
         <v>3.6304300000001604</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>117</v>
+      <c r="A326" s="0">
+        <v>15</v>
+      </c>
+      <c r="B326" s="0">
+        <v>3</v>
       </c>
       <c r="C326" s="0">
         <v>3.9954099999999926</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>117</v>
+      <c r="A327" s="0">
+        <v>15</v>
+      </c>
+      <c r="B327" s="0">
+        <v>3</v>
       </c>
       <c r="C327" s="0">
         <v>3.3981300000000374</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B328" s="0" t="s">
-        <v>117</v>
+      <c r="A328" s="0">
+        <v>15</v>
+      </c>
+      <c r="B328" s="0">
+        <v>3</v>
       </c>
       <c r="C328" s="0">
         <v>5.4766899999999623</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>117</v>
+      <c r="A329" s="0">
+        <v>15</v>
+      </c>
+      <c r="B329" s="0">
+        <v>3</v>
       </c>
       <c r="C329" s="0">
         <v>11.406819999999925</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>117</v>
+      <c r="A330" s="0">
+        <v>15</v>
+      </c>
+      <c r="B330" s="0">
+        <v>3</v>
       </c>
       <c r="C330" s="0">
         <v>6.2792300000000978</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>117</v>
+      <c r="A331" s="0">
+        <v>15</v>
+      </c>
+      <c r="B331" s="0">
+        <v>3</v>
       </c>
       <c r="C331" s="0">
         <v>5.2765799999999672</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>117</v>
+      <c r="A332" s="0">
+        <v>16</v>
+      </c>
+      <c r="B332" s="0">
+        <v>3</v>
       </c>
       <c r="C332" s="0">
         <v>3.0358900000001086</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B333" s="0" t="s">
-        <v>117</v>
+      <c r="A333" s="0">
+        <v>16</v>
+      </c>
+      <c r="B333" s="0">
+        <v>3</v>
       </c>
       <c r="C333" s="0">
         <v>2.6141300000001593</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B334" s="0" t="s">
-        <v>117</v>
+      <c r="A334" s="0">
+        <v>16</v>
+      </c>
+      <c r="B334" s="0">
+        <v>3</v>
       </c>
       <c r="C334" s="0">
         <v>2.7275600000000395</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B335" s="0" t="s">
-        <v>117</v>
+      <c r="A335" s="0">
+        <v>16</v>
+      </c>
+      <c r="B335" s="0">
+        <v>3</v>
       </c>
       <c r="C335" s="0">
         <v>3.340099999999893</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>117</v>
+      <c r="A336" s="0">
+        <v>16</v>
+      </c>
+      <c r="B336" s="0">
+        <v>3</v>
       </c>
       <c r="C336" s="0">
         <v>2.4101200000000063</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>117</v>
+      <c r="A337" s="0">
+        <v>16</v>
+      </c>
+      <c r="B337" s="0">
+        <v>3</v>
       </c>
       <c r="C337" s="0">
         <v>2.5567800000001171</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>117</v>
+      <c r="A338" s="0">
+        <v>16</v>
+      </c>
+      <c r="B338" s="0">
+        <v>3</v>
       </c>
       <c r="C338" s="0">
         <v>2.8457300000000032</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>117</v>
+      <c r="A339" s="0">
+        <v>16</v>
+      </c>
+      <c r="B339" s="0">
+        <v>3</v>
       </c>
       <c r="C339" s="0">
         <v>3.7202700000000277</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>117</v>
+      <c r="A340" s="0">
+        <v>16</v>
+      </c>
+      <c r="B340" s="0">
+        <v>3</v>
       </c>
       <c r="C340" s="0">
         <v>2.55045999999993</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>117</v>
+      <c r="A341" s="0">
+        <v>16</v>
+      </c>
+      <c r="B341" s="0">
+        <v>3</v>
       </c>
       <c r="C341" s="0">
         <v>2.0901800000001458</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>117</v>
+      <c r="A342" s="0">
+        <v>17</v>
+      </c>
+      <c r="B342" s="0">
+        <v>3</v>
       </c>
       <c r="C342" s="0">
         <v>8.1544799999999213</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>117</v>
+      <c r="A343" s="0">
+        <v>17</v>
+      </c>
+      <c r="B343" s="0">
+        <v>3</v>
       </c>
       <c r="C343" s="0">
         <v>6.779510000000073</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>117</v>
+      <c r="A344" s="0">
+        <v>17</v>
+      </c>
+      <c r="B344" s="0">
+        <v>3</v>
       </c>
       <c r="C344" s="0">
         <v>6.5590799999999945</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B345" s="0" t="s">
-        <v>117</v>
+      <c r="A345" s="0">
+        <v>17</v>
+      </c>
+      <c r="B345" s="0">
+        <v>3</v>
       </c>
       <c r="C345" s="0">
         <v>6.4757300000001123</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>117</v>
+      <c r="A346" s="0">
+        <v>17</v>
+      </c>
+      <c r="B346" s="0">
+        <v>3</v>
       </c>
       <c r="C346" s="0">
         <v>7.8990799999999126</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>117</v>
+      <c r="A347" s="0">
+        <v>17</v>
+      </c>
+      <c r="B347" s="0">
+        <v>3</v>
       </c>
       <c r="C347" s="0">
         <v>6.9021499999998923</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>117</v>
+      <c r="A348" s="0">
+        <v>17</v>
+      </c>
+      <c r="B348" s="0">
+        <v>3</v>
       </c>
       <c r="C348" s="0">
         <v>6.9900399999999081</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>117</v>
+      <c r="A349" s="0">
+        <v>17</v>
+      </c>
+      <c r="B349" s="0">
+        <v>3</v>
       </c>
       <c r="C349" s="0">
         <v>10.83264999999983</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>117</v>
+      <c r="A350" s="0">
+        <v>17</v>
+      </c>
+      <c r="B350" s="0">
+        <v>3</v>
       </c>
       <c r="C350" s="0">
         <v>7.8486199999999826</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>117</v>
+      <c r="A351" s="0">
+        <v>17</v>
+      </c>
+      <c r="B351" s="0">
+        <v>3</v>
       </c>
       <c r="C351" s="0">
         <v>6.1598800000001575</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B352" s="0" t="s">
-        <v>117</v>
+      <c r="A352" s="0">
+        <v>18</v>
+      </c>
+      <c r="B352" s="0">
+        <v>3</v>
       </c>
       <c r="C352" s="0">
         <v>4.814489999999978</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>117</v>
+      <c r="A353" s="0">
+        <v>18</v>
+      </c>
+      <c r="B353" s="0">
+        <v>3</v>
       </c>
       <c r="C353" s="0">
         <v>4.7142300000000432</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>117</v>
+      <c r="A354" s="0">
+        <v>18</v>
+      </c>
+      <c r="B354" s="0">
+        <v>3</v>
       </c>
       <c r="C354" s="0">
         <v>4.9586500000000342</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>117</v>
+      <c r="A355" s="0">
+        <v>18</v>
+      </c>
+      <c r="B355" s="0">
+        <v>3</v>
       </c>
       <c r="C355" s="0">
         <v>5.170069999999896</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>117</v>
+      <c r="A356" s="0">
+        <v>18</v>
+      </c>
+      <c r="B356" s="0">
+        <v>3</v>
       </c>
       <c r="C356" s="0">
         <v>4.5594100000000708</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>117</v>
+      <c r="A357" s="0">
+        <v>18</v>
+      </c>
+      <c r="B357" s="0">
+        <v>3</v>
       </c>
       <c r="C357" s="0">
         <v>5.1151199999999335</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>117</v>
+      <c r="A358" s="0">
+        <v>18</v>
+      </c>
+      <c r="B358" s="0">
+        <v>3</v>
       </c>
       <c r="C358" s="0">
         <v>6.0202100000001337</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B359" s="0" t="s">
-        <v>117</v>
+      <c r="A359" s="0">
+        <v>18</v>
+      </c>
+      <c r="B359" s="0">
+        <v>3</v>
       </c>
       <c r="C359" s="0">
         <v>4.8691200000000663</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>117</v>
+      <c r="A360" s="0">
+        <v>18</v>
+      </c>
+      <c r="B360" s="0">
+        <v>3</v>
       </c>
       <c r="C360" s="0">
         <v>10.135459999999966</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>117</v>
+      <c r="A361" s="0">
+        <v>18</v>
+      </c>
+      <c r="B361" s="0">
+        <v>3</v>
       </c>
       <c r="C361" s="0">
         <v>6.5079900000000634</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>118</v>
+      <c r="A362" s="0">
+        <v>1</v>
+      </c>
+      <c r="B362" s="0">
+        <v>5</v>
       </c>
       <c r="C362" s="0">
         <v>10.529469999999947</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>118</v>
+      <c r="A363" s="0">
+        <v>1</v>
+      </c>
+      <c r="B363" s="0">
+        <v>5</v>
       </c>
       <c r="C363" s="0">
         <v>7.738140000000385</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>118</v>
+      <c r="A364" s="0">
+        <v>1</v>
+      </c>
+      <c r="B364" s="0">
+        <v>5</v>
       </c>
       <c r="C364" s="0">
         <v>8.3321599999999307</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>118</v>
+      <c r="A365" s="0">
+        <v>1</v>
+      </c>
+      <c r="B365" s="0">
+        <v>5</v>
       </c>
       <c r="C365" s="0">
         <v>5.8940099999999802</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B366" s="0" t="s">
-        <v>118</v>
+      <c r="A366" s="0">
+        <v>1</v>
+      </c>
+      <c r="B366" s="0">
+        <v>5</v>
       </c>
       <c r="C366" s="0">
         <v>6.6814399999998386</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>118</v>
+      <c r="A367" s="0">
+        <v>1</v>
+      </c>
+      <c r="B367" s="0">
+        <v>5</v>
       </c>
       <c r="C367" s="0">
         <v>5.5838600000001861</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B368" s="0" t="s">
-        <v>118</v>
+      <c r="A368" s="0">
+        <v>1</v>
+      </c>
+      <c r="B368" s="0">
+        <v>5</v>
       </c>
       <c r="C368" s="0">
         <v>6.9174199999997654</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B369" s="0" t="s">
-        <v>118</v>
+      <c r="A369" s="0">
+        <v>1</v>
+      </c>
+      <c r="B369" s="0">
+        <v>5</v>
       </c>
       <c r="C369" s="0">
         <v>6.2097199999998338</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>118</v>
+      <c r="A370" s="0">
+        <v>1</v>
+      </c>
+      <c r="B370" s="0">
+        <v>5</v>
       </c>
       <c r="C370" s="0">
         <v>11.204200000000128</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>118</v>
+      <c r="A371" s="0">
+        <v>1</v>
+      </c>
+      <c r="B371" s="0">
+        <v>5</v>
       </c>
       <c r="C371" s="0">
         <v>5.1166599999996834</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>118</v>
+      <c r="A372" s="0">
+        <v>2</v>
+      </c>
+      <c r="B372" s="0">
+        <v>5</v>
       </c>
       <c r="C372" s="0">
         <v>3.6242300000001251</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>118</v>
+      <c r="A373" s="0">
+        <v>2</v>
+      </c>
+      <c r="B373" s="0">
+        <v>5</v>
       </c>
       <c r="C373" s="0">
         <v>3.0598999999999705</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>118</v>
+      <c r="A374" s="0">
+        <v>2</v>
+      </c>
+      <c r="B374" s="0">
+        <v>5</v>
       </c>
       <c r="C374" s="0">
         <v>2.7655799999999999</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B375" s="0" t="s">
-        <v>118</v>
+      <c r="A375" s="0">
+        <v>2</v>
+      </c>
+      <c r="B375" s="0">
+        <v>5</v>
       </c>
       <c r="C375" s="0">
         <v>3.6415200000001278</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B376" s="0" t="s">
-        <v>118</v>
+      <c r="A376" s="0">
+        <v>2</v>
+      </c>
+      <c r="B376" s="0">
+        <v>5</v>
       </c>
       <c r="C376" s="0">
         <v>2.7450200000000677</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B377" s="0" t="s">
-        <v>118</v>
+      <c r="A377" s="0">
+        <v>2</v>
+      </c>
+      <c r="B377" s="0">
+        <v>5</v>
       </c>
       <c r="C377" s="0">
         <v>2.4908600000001115</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B378" s="0" t="s">
-        <v>118</v>
+      <c r="A378" s="0">
+        <v>2</v>
+      </c>
+      <c r="B378" s="0">
+        <v>5</v>
       </c>
       <c r="C378" s="0">
         <v>2.7212199999999029</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B379" s="0" t="s">
-        <v>118</v>
+      <c r="A379" s="0">
+        <v>2</v>
+      </c>
+      <c r="B379" s="0">
+        <v>5</v>
       </c>
       <c r="C379" s="0">
         <v>2.3141599999999016</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>118</v>
+      <c r="A380" s="0">
+        <v>2</v>
+      </c>
+      <c r="B380" s="0">
+        <v>5</v>
       </c>
       <c r="C380" s="0">
         <v>3.4489399999999932</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B381" s="0" t="s">
-        <v>118</v>
+      <c r="A381" s="0">
+        <v>2</v>
+      </c>
+      <c r="B381" s="0">
+        <v>5</v>
       </c>
       <c r="C381" s="0">
         <v>2.7626399999999194</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>118</v>
+      <c r="A382" s="0">
+        <v>3</v>
+      </c>
+      <c r="B382" s="0">
+        <v>5</v>
       </c>
       <c r="C382" s="0">
         <v>5.2555700000000343</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>118</v>
+      <c r="A383" s="0">
+        <v>3</v>
+      </c>
+      <c r="B383" s="0">
+        <v>5</v>
       </c>
       <c r="C383" s="0">
         <v>4.6289799999999559</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>118</v>
+      <c r="A384" s="0">
+        <v>3</v>
+      </c>
+      <c r="B384" s="0">
+        <v>5</v>
       </c>
       <c r="C384" s="0">
         <v>6.5960300000001553</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>118</v>
+      <c r="A385" s="0">
+        <v>3</v>
+      </c>
+      <c r="B385" s="0">
+        <v>5</v>
       </c>
       <c r="C385" s="0">
         <v>6.3345099999999093</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>118</v>
+      <c r="A386" s="0">
+        <v>3</v>
+      </c>
+      <c r="B386" s="0">
+        <v>5</v>
       </c>
       <c r="C386" s="0">
         <v>6.6196700000000419</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>118</v>
+      <c r="A387" s="0">
+        <v>3</v>
+      </c>
+      <c r="B387" s="0">
+        <v>5</v>
       </c>
       <c r="C387" s="0">
         <v>5.6322900000000118</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>118</v>
+      <c r="A388" s="0">
+        <v>3</v>
+      </c>
+      <c r="B388" s="0">
+        <v>5</v>
       </c>
       <c r="C388" s="0">
         <v>6.474770000000035</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B389" s="0" t="s">
-        <v>118</v>
+      <c r="A389" s="0">
+        <v>3</v>
+      </c>
+      <c r="B389" s="0">
+        <v>5</v>
       </c>
       <c r="C389" s="0">
         <v>6.3143900000000031</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B390" s="0" t="s">
-        <v>118</v>
+      <c r="A390" s="0">
+        <v>3</v>
+      </c>
+      <c r="B390" s="0">
+        <v>5</v>
       </c>
       <c r="C390" s="0">
         <v>6.3782799999999042</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B391" s="0" t="s">
-        <v>118</v>
+      <c r="A391" s="0">
+        <v>3</v>
+      </c>
+      <c r="B391" s="0">
+        <v>5</v>
       </c>
       <c r="C391" s="0">
         <v>6.6225299999998697</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>118</v>
+      <c r="A392" s="0">
+        <v>4</v>
+      </c>
+      <c r="B392" s="0">
+        <v>5</v>
       </c>
       <c r="C392" s="0">
         <v>2.82195999999999</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B393" s="0" t="s">
-        <v>118</v>
+      <c r="A393" s="0">
+        <v>4</v>
+      </c>
+      <c r="B393" s="0">
+        <v>5</v>
       </c>
       <c r="C393" s="0">
         <v>2.510859999999866</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>118</v>
+      <c r="A394" s="0">
+        <v>4</v>
+      </c>
+      <c r="B394" s="0">
+        <v>5</v>
       </c>
       <c r="C394" s="0">
         <v>2.8923999999999523</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B395" s="0" t="s">
-        <v>118</v>
+      <c r="A395" s="0">
+        <v>4</v>
+      </c>
+      <c r="B395" s="0">
+        <v>5</v>
       </c>
       <c r="C395" s="0">
         <v>2.7759599999999409</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>118</v>
+      <c r="A396" s="0">
+        <v>4</v>
+      </c>
+      <c r="B396" s="0">
+        <v>5</v>
       </c>
       <c r="C396" s="0">
         <v>2.7667400000000271</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>118</v>
+      <c r="A397" s="0">
+        <v>4</v>
+      </c>
+      <c r="B397" s="0">
+        <v>5</v>
       </c>
       <c r="C397" s="0">
         <v>2.3505099999999857</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B398" s="0" t="s">
-        <v>118</v>
+      <c r="A398" s="0">
+        <v>4</v>
+      </c>
+      <c r="B398" s="0">
+        <v>5</v>
       </c>
       <c r="C398" s="0">
         <v>2.2596800000001167</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>118</v>
+      <c r="A399" s="0">
+        <v>4</v>
+      </c>
+      <c r="B399" s="0">
+        <v>5</v>
       </c>
       <c r="C399" s="0">
         <v>2.3000999999999294</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B400" s="0" t="s">
-        <v>118</v>
+      <c r="A400" s="0">
+        <v>4</v>
+      </c>
+      <c r="B400" s="0">
+        <v>5</v>
       </c>
       <c r="C400" s="0">
         <v>2.479280000000017</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>118</v>
+      <c r="A401" s="0">
+        <v>4</v>
+      </c>
+      <c r="B401" s="0">
+        <v>5</v>
       </c>
       <c r="C401" s="0">
         <v>2.5216199999999844</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>118</v>
+      <c r="A402" s="0">
+        <v>5</v>
+      </c>
+      <c r="B402" s="0">
+        <v>5</v>
       </c>
       <c r="C402" s="0">
         <v>7.2383099999997285</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>118</v>
+      <c r="A403" s="0">
+        <v>5</v>
+      </c>
+      <c r="B403" s="0">
+        <v>5</v>
       </c>
       <c r="C403" s="0">
         <v>7.970299999999952</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>118</v>
+      <c r="A404" s="0">
+        <v>5</v>
+      </c>
+      <c r="B404" s="0">
+        <v>5</v>
       </c>
       <c r="C404" s="0">
         <v>7.3228300000000672</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>118</v>
+      <c r="A405" s="0">
+        <v>5</v>
+      </c>
+      <c r="B405" s="0">
+        <v>5</v>
       </c>
       <c r="C405" s="0">
         <v>4.7121600000000399</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B406" s="0" t="s">
-        <v>118</v>
+      <c r="A406" s="0">
+        <v>5</v>
+      </c>
+      <c r="B406" s="0">
+        <v>5</v>
       </c>
       <c r="C406" s="0">
         <v>3.8563700000004246</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>118</v>
+      <c r="A407" s="0">
+        <v>5</v>
+      </c>
+      <c r="B407" s="0">
+        <v>5</v>
       </c>
       <c r="C407" s="0">
         <v>4.4073600000001534</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>118</v>
+      <c r="A408" s="0">
+        <v>5</v>
+      </c>
+      <c r="B408" s="0">
+        <v>5</v>
       </c>
       <c r="C408" s="0">
         <v>3.5054699999996046</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>118</v>
+      <c r="A409" s="0">
+        <v>5</v>
+      </c>
+      <c r="B409" s="0">
+        <v>5</v>
       </c>
       <c r="C409" s="0">
         <v>6.5510199999998804</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>118</v>
+      <c r="A410" s="0">
+        <v>5</v>
+      </c>
+      <c r="B410" s="0">
+        <v>5</v>
       </c>
       <c r="C410" s="0">
         <v>4.2138199999999415</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>118</v>
+      <c r="A411" s="0">
+        <v>5</v>
+      </c>
+      <c r="B411" s="0">
+        <v>5</v>
       </c>
       <c r="C411" s="0">
         <v>3.6686099999997168</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>118</v>
+      <c r="A412" s="0">
+        <v>6</v>
+      </c>
+      <c r="B412" s="0">
+        <v>5</v>
       </c>
       <c r="C412" s="0">
         <v>4.4466200000001663</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>118</v>
+      <c r="A413" s="0">
+        <v>6</v>
+      </c>
+      <c r="B413" s="0">
+        <v>5</v>
       </c>
       <c r="C413" s="0">
         <v>2.7730300000000625</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>118</v>
+      <c r="A414" s="0">
+        <v>6</v>
+      </c>
+      <c r="B414" s="0">
+        <v>5</v>
       </c>
       <c r="C414" s="0">
         <v>3.7574500000000626</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>118</v>
+      <c r="A415" s="0">
+        <v>6</v>
+      </c>
+      <c r="B415" s="0">
+        <v>5</v>
       </c>
       <c r="C415" s="0">
         <v>6.6048600000001443</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>118</v>
+      <c r="A416" s="0">
+        <v>6</v>
+      </c>
+      <c r="B416" s="0">
+        <v>5</v>
       </c>
       <c r="C416" s="0">
         <v>2.6708100000000741</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>118</v>
+      <c r="A417" s="0">
+        <v>6</v>
+      </c>
+      <c r="B417" s="0">
+        <v>5</v>
       </c>
       <c r="C417" s="0">
         <v>2.5848799999998846</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>118</v>
+      <c r="A418" s="0">
+        <v>6</v>
+      </c>
+      <c r="B418" s="0">
+        <v>5</v>
       </c>
       <c r="C418" s="0">
         <v>2.3764400000000023</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>118</v>
+      <c r="A419" s="0">
+        <v>6</v>
+      </c>
+      <c r="B419" s="0">
+        <v>5</v>
       </c>
       <c r="C419" s="0">
         <v>9.327350000000024</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>118</v>
+      <c r="A420" s="0">
+        <v>6</v>
+      </c>
+      <c r="B420" s="0">
+        <v>5</v>
       </c>
       <c r="C420" s="0">
         <v>2.6938000000000102</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B421" s="0" t="s">
-        <v>118</v>
+      <c r="A421" s="0">
+        <v>6</v>
+      </c>
+      <c r="B421" s="0">
+        <v>5</v>
       </c>
       <c r="C421" s="0">
         <v>2.53125</v>
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B422" s="0" t="s">
-        <v>118</v>
+      <c r="A422" s="0">
+        <v>7</v>
+      </c>
+      <c r="B422" s="0">
+        <v>5</v>
       </c>
       <c r="C422" s="0">
         <v>4.746860000000197</v>
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B423" s="0" t="s">
-        <v>118</v>
+      <c r="A423" s="0">
+        <v>7</v>
+      </c>
+      <c r="B423" s="0">
+        <v>5</v>
       </c>
       <c r="C423" s="0">
         <v>4.5404599999997117</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B424" s="0" t="s">
-        <v>118</v>
+      <c r="A424" s="0">
+        <v>7</v>
+      </c>
+      <c r="B424" s="0">
+        <v>5</v>
       </c>
       <c r="C424" s="0">
         <v>4.5549800000003415</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B425" s="0" t="s">
-        <v>118</v>
+      <c r="A425" s="0">
+        <v>7</v>
+      </c>
+      <c r="B425" s="0">
+        <v>5</v>
       </c>
       <c r="C425" s="0">
         <v>6.8703800000002957</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>118</v>
+      <c r="A426" s="0">
+        <v>7</v>
+      </c>
+      <c r="B426" s="0">
+        <v>5</v>
       </c>
       <c r="C426" s="0">
         <v>6.2718799999997827</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B427" s="0" t="s">
-        <v>118</v>
+      <c r="A427" s="0">
+        <v>7</v>
+      </c>
+      <c r="B427" s="0">
+        <v>5</v>
       </c>
       <c r="C427" s="0">
         <v>4.8009799999999814</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B428" s="0" t="s">
-        <v>118</v>
+      <c r="A428" s="0">
+        <v>7</v>
+      </c>
+      <c r="B428" s="0">
+        <v>5</v>
       </c>
       <c r="C428" s="0">
         <v>5.8644899999999325</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B429" s="0" t="s">
-        <v>118</v>
+      <c r="A429" s="0">
+        <v>7</v>
+      </c>
+      <c r="B429" s="0">
+        <v>5</v>
       </c>
       <c r="C429" s="0">
         <v>6.9530400000003283</v>
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B430" s="0" t="s">
-        <v>118</v>
+      <c r="A430" s="0">
+        <v>7</v>
+      </c>
+      <c r="B430" s="0">
+        <v>5</v>
       </c>
       <c r="C430" s="0">
         <v>4.6832500000000437</v>
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B431" s="0" t="s">
-        <v>118</v>
+      <c r="A431" s="0">
+        <v>7</v>
+      </c>
+      <c r="B431" s="0">
+        <v>5</v>
       </c>
       <c r="C431" s="0">
         <v>5.0615899999997964</v>
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B432" s="0" t="s">
-        <v>118</v>
+      <c r="A432" s="0">
+        <v>8</v>
+      </c>
+      <c r="B432" s="0">
+        <v>5</v>
       </c>
       <c r="C432" s="0">
         <v>3.4947900000001937</v>
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B433" s="0" t="s">
-        <v>118</v>
+      <c r="A433" s="0">
+        <v>8</v>
+      </c>
+      <c r="B433" s="0">
+        <v>5</v>
       </c>
       <c r="C433" s="0">
         <v>2.3297200000001794</v>
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>118</v>
+      <c r="A434" s="0">
+        <v>8</v>
+      </c>
+      <c r="B434" s="0">
+        <v>5</v>
       </c>
       <c r="C434" s="0">
         <v>4.1893099999997503</v>
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>118</v>
+      <c r="A435" s="0">
+        <v>8</v>
+      </c>
+      <c r="B435" s="0">
+        <v>5</v>
       </c>
       <c r="C435" s="0">
         <v>5.3779600000002574</v>
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>118</v>
+      <c r="A436" s="0">
+        <v>8</v>
+      </c>
+      <c r="B436" s="0">
+        <v>5</v>
       </c>
       <c r="C436" s="0">
         <v>7.7653599999998733</v>
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B437" s="0" t="s">
-        <v>118</v>
+      <c r="A437" s="0">
+        <v>8</v>
+      </c>
+      <c r="B437" s="0">
+        <v>5</v>
       </c>
       <c r="C437" s="0">
         <v>2.6578500000000531</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B438" s="0" t="s">
-        <v>118</v>
+      <c r="A438" s="0">
+        <v>8</v>
+      </c>
+      <c r="B438" s="0">
+        <v>5</v>
       </c>
       <c r="C438" s="0">
         <v>8.6900200000000041</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B439" s="0" t="s">
-        <v>118</v>
+      <c r="A439" s="0">
+        <v>8</v>
+      </c>
+      <c r="B439" s="0">
+        <v>5</v>
       </c>
       <c r="C439" s="0">
         <v>3.8025900000002366</v>
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B440" s="0" t="s">
-        <v>118</v>
+      <c r="A440" s="0">
+        <v>8</v>
+      </c>
+      <c r="B440" s="0">
+        <v>5</v>
       </c>
       <c r="C440" s="0">
         <v>2.0467800000001262</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>118</v>
+      <c r="A441" s="0">
+        <v>8</v>
+      </c>
+      <c r="B441" s="0">
+        <v>5</v>
       </c>
       <c r="C441" s="0">
         <v>3.9780700000001161</v>
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>118</v>
+      <c r="A442" s="0">
+        <v>9</v>
+      </c>
+      <c r="B442" s="0">
+        <v>5</v>
       </c>
       <c r="C442" s="0">
         <v>4.8044760000000224</v>
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>118</v>
+      <c r="A443" s="0">
+        <v>9</v>
+      </c>
+      <c r="B443" s="0">
+        <v>5</v>
       </c>
       <c r="C443" s="0">
         <v>4.0125570000000153</v>
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>118</v>
+      <c r="A444" s="0">
+        <v>9</v>
+      </c>
+      <c r="B444" s="0">
+        <v>5</v>
       </c>
       <c r="C444" s="0">
         <v>4.2760379999999714</v>
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>118</v>
+      <c r="A445" s="0">
+        <v>9</v>
+      </c>
+      <c r="B445" s="0">
+        <v>5</v>
       </c>
       <c r="C445" s="0">
         <v>3.9624309999999241</v>
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B446" s="0" t="s">
-        <v>118</v>
+      <c r="A446" s="0">
+        <v>9</v>
+      </c>
+      <c r="B446" s="0">
+        <v>5</v>
       </c>
       <c r="C446" s="0">
         <v>3.9464599999998882</v>
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>118</v>
+      <c r="A447" s="0">
+        <v>9</v>
+      </c>
+      <c r="B447" s="0">
+        <v>5</v>
       </c>
       <c r="C447" s="0">
         <v>4.3994999999999891</v>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B448" s="0" t="s">
-        <v>118</v>
+      <c r="A448" s="0">
+        <v>9</v>
+      </c>
+      <c r="B448" s="0">
+        <v>5</v>
       </c>
       <c r="C448" s="0">
         <v>4.0509120000001531</v>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>118</v>
+      <c r="A449" s="0">
+        <v>9</v>
+      </c>
+      <c r="B449" s="0">
+        <v>5</v>
       </c>
       <c r="C449" s="0">
         <v>3.4839150000000245</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>118</v>
+      <c r="A450" s="0">
+        <v>9</v>
+      </c>
+      <c r="B450" s="0">
+        <v>5</v>
       </c>
       <c r="C450" s="0">
         <v>3.7820529999999053</v>
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>118</v>
+      <c r="A451" s="0">
+        <v>9</v>
+      </c>
+      <c r="B451" s="0">
+        <v>5</v>
       </c>
       <c r="C451" s="0">
         <v>3.3988389999999526</v>
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>118</v>
+      <c r="A452" s="0">
+        <v>10</v>
+      </c>
+      <c r="B452" s="0">
+        <v>5</v>
       </c>
       <c r="C452" s="0">
         <v>3.3679399999998623</v>
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B453" s="0" t="s">
-        <v>118</v>
+      <c r="A453" s="0">
+        <v>10</v>
+      </c>
+      <c r="B453" s="0">
+        <v>5</v>
       </c>
       <c r="C453" s="0">
         <v>2.4606599999999617</v>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>118</v>
+      <c r="A454" s="0">
+        <v>10</v>
+      </c>
+      <c r="B454" s="0">
+        <v>5</v>
       </c>
       <c r="C454" s="0">
         <v>2.2441000000001168</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B455" s="0" t="s">
-        <v>118</v>
+      <c r="A455" s="0">
+        <v>10</v>
+      </c>
+      <c r="B455" s="0">
+        <v>5</v>
       </c>
       <c r="C455" s="0">
         <v>2.2043199999998251</v>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>118</v>
+      <c r="A456" s="0">
+        <v>10</v>
+      </c>
+      <c r="B456" s="0">
+        <v>5</v>
       </c>
       <c r="C456" s="0">
         <v>2.2724499999999352</v>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B457" s="0" t="s">
-        <v>118</v>
+      <c r="A457" s="0">
+        <v>10</v>
+      </c>
+      <c r="B457" s="0">
+        <v>5</v>
       </c>
       <c r="C457" s="0">
         <v>2.4350799999999708</v>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B458" s="0" t="s">
-        <v>118</v>
+      <c r="A458" s="0">
+        <v>10</v>
+      </c>
+      <c r="B458" s="0">
+        <v>5</v>
       </c>
       <c r="C458" s="0">
         <v>2.3587800000000243</v>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>118</v>
+      <c r="A459" s="0">
+        <v>10</v>
+      </c>
+      <c r="B459" s="0">
+        <v>5</v>
       </c>
       <c r="C459" s="0">
         <v>2.0391999999999371</v>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>118</v>
+      <c r="A460" s="0">
+        <v>10</v>
+      </c>
+      <c r="B460" s="0">
+        <v>5</v>
       </c>
       <c r="C460" s="0">
         <v>5.3750499999998738</v>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B461" s="0" t="s">
-        <v>118</v>
+      <c r="A461" s="0">
+        <v>10</v>
+      </c>
+      <c r="B461" s="0">
+        <v>5</v>
       </c>
       <c r="C461" s="0">
         <v>2.2817100000002029</v>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B462" s="0" t="s">
-        <v>118</v>
+      <c r="A462" s="0">
+        <v>11</v>
+      </c>
+      <c r="B462" s="0">
+        <v>5</v>
       </c>
       <c r="C462" s="0">
         <v>3.2757299999998395</v>
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>118</v>
+      <c r="A463" s="0">
+        <v>11</v>
+      </c>
+      <c r="B463" s="0">
+        <v>5</v>
       </c>
       <c r="C463" s="0">
         <v>3.0748599999999442</v>
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B464" s="0" t="s">
-        <v>118</v>
+      <c r="A464" s="0">
+        <v>11</v>
+      </c>
+      <c r="B464" s="0">
+        <v>5</v>
       </c>
       <c r="C464" s="0">
         <v>2.5271100000002207</v>
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>118</v>
+      <c r="A465" s="0">
+        <v>11</v>
+      </c>
+      <c r="B465" s="0">
+        <v>5</v>
       </c>
       <c r="C465" s="0">
         <v>4.2159699999999702</v>
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>118</v>
+      <c r="A466" s="0">
+        <v>11</v>
+      </c>
+      <c r="B466" s="0">
+        <v>5</v>
       </c>
       <c r="C466" s="0">
         <v>2.3841300000001411</v>
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B467" s="0" t="s">
-        <v>118</v>
+      <c r="A467" s="0">
+        <v>11</v>
+      </c>
+      <c r="B467" s="0">
+        <v>5</v>
       </c>
       <c r="C467" s="0">
         <v>3.3502600000001621</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>118</v>
+      <c r="A468" s="0">
+        <v>11</v>
+      </c>
+      <c r="B468" s="0">
+        <v>5</v>
       </c>
       <c r="C468" s="0">
         <v>3.0662199999999302</v>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B469" s="0" t="s">
-        <v>118</v>
+      <c r="A469" s="0">
+        <v>11</v>
+      </c>
+      <c r="B469" s="0">
+        <v>5</v>
       </c>
       <c r="C469" s="0">
         <v>2.0739200000000437</v>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>118</v>
+      <c r="A470" s="0">
+        <v>11</v>
+      </c>
+      <c r="B470" s="0">
+        <v>5</v>
       </c>
       <c r="C470" s="0">
         <v>10.748759999999947</v>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B471" s="0" t="s">
-        <v>118</v>
+      <c r="A471" s="0">
+        <v>11</v>
+      </c>
+      <c r="B471" s="0">
+        <v>5</v>
       </c>
       <c r="C471" s="0">
         <v>3.3107700000000477</v>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B472" s="0" t="s">
-        <v>118</v>
+      <c r="A472" s="0">
+        <v>12</v>
+      </c>
+      <c r="B472" s="0">
+        <v>5</v>
       </c>
       <c r="C472" s="0">
         <v>3.9432600000000093</v>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B473" s="0" t="s">
-        <v>118</v>
+      <c r="A473" s="0">
+        <v>12</v>
+      </c>
+      <c r="B473" s="0">
+        <v>5</v>
       </c>
       <c r="C473" s="0">
         <v>3.2290199999999913</v>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>118</v>
+      <c r="A474" s="0">
+        <v>12</v>
+      </c>
+      <c r="B474" s="0">
+        <v>5</v>
       </c>
       <c r="C474" s="0">
         <v>3.0072399999999107</v>
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>118</v>
+      <c r="A475" s="0">
+        <v>12</v>
+      </c>
+      <c r="B475" s="0">
+        <v>5</v>
       </c>
       <c r="C475" s="0">
         <v>3.0272800000000188</v>
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>118</v>
+      <c r="A476" s="0">
+        <v>12</v>
+      </c>
+      <c r="B476" s="0">
+        <v>5</v>
       </c>
       <c r="C476" s="0">
         <v>2.8639499999999316</v>
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B477" s="0" t="s">
-        <v>118</v>
+      <c r="A477" s="0">
+        <v>12</v>
+      </c>
+      <c r="B477" s="0">
+        <v>5</v>
       </c>
       <c r="C477" s="0">
         <v>4.3957900000000336</v>
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B478" s="0" t="s">
-        <v>118</v>
+      <c r="A478" s="0">
+        <v>12</v>
+      </c>
+      <c r="B478" s="0">
+        <v>5</v>
       </c>
       <c r="C478" s="0">
         <v>2.8817199999998593</v>
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B479" s="0" t="s">
-        <v>118</v>
+      <c r="A479" s="0">
+        <v>12</v>
+      </c>
+      <c r="B479" s="0">
+        <v>5</v>
       </c>
       <c r="C479" s="0">
         <v>3.8551299999999173</v>
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>118</v>
+      <c r="A480" s="0">
+        <v>12</v>
+      </c>
+      <c r="B480" s="0">
+        <v>5</v>
       </c>
       <c r="C480" s="0">
         <v>3.793480000000045</v>
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B481" s="0" t="s">
-        <v>118</v>
+      <c r="A481" s="0">
+        <v>12</v>
+      </c>
+      <c r="B481" s="0">
+        <v>5</v>
       </c>
       <c r="C481" s="0">
         <v>3.5625400000001264</v>
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>118</v>
+      <c r="A482" s="0">
+        <v>13</v>
+      </c>
+      <c r="B482" s="0">
+        <v>5</v>
       </c>
       <c r="C482" s="0">
         <v>4.2019300000001749</v>
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>118</v>
+      <c r="A483" s="0">
+        <v>13</v>
+      </c>
+      <c r="B483" s="0">
+        <v>5</v>
       </c>
       <c r="C483" s="0">
         <v>6.7383499999998548</v>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>118</v>
+      <c r="A484" s="0">
+        <v>13</v>
+      </c>
+      <c r="B484" s="0">
+        <v>5</v>
       </c>
       <c r="C484" s="0">
         <v>3.6263900000001286</v>
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B485" s="0" t="s">
-        <v>118</v>
+      <c r="A485" s="0">
+        <v>13</v>
+      </c>
+      <c r="B485" s="0">
+        <v>5</v>
       </c>
       <c r="C485" s="0">
         <v>3.9613099999999122</v>
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B486" s="0" t="s">
-        <v>118</v>
+      <c r="A486" s="0">
+        <v>13</v>
+      </c>
+      <c r="B486" s="0">
+        <v>5</v>
       </c>
       <c r="C486" s="0">
         <v>3.8970099999999093</v>
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B487" s="0" t="s">
-        <v>118</v>
+      <c r="A487" s="0">
+        <v>13</v>
+      </c>
+      <c r="B487" s="0">
+        <v>5</v>
       </c>
       <c r="C487" s="0">
         <v>3.2219000000000051</v>
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B488" s="0" t="s">
-        <v>118</v>
+      <c r="A488" s="0">
+        <v>13</v>
+      </c>
+      <c r="B488" s="0">
+        <v>5</v>
       </c>
       <c r="C488" s="0">
         <v>2.8978700000000117</v>
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>118</v>
+      <c r="A489" s="0">
+        <v>13</v>
+      </c>
+      <c r="B489" s="0">
+        <v>5</v>
       </c>
       <c r="C489" s="0">
         <v>3.1309599999999591</v>
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>118</v>
+      <c r="A490" s="0">
+        <v>13</v>
+      </c>
+      <c r="B490" s="0">
+        <v>5</v>
       </c>
       <c r="C490" s="0">
         <v>2.953899999999976</v>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B491" s="0" t="s">
-        <v>118</v>
+      <c r="A491" s="0">
+        <v>13</v>
+      </c>
+      <c r="B491" s="0">
+        <v>5</v>
       </c>
       <c r="C491" s="0">
         <v>3.0478499999999258</v>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B492" s="0" t="s">
-        <v>118</v>
+      <c r="A492" s="0">
+        <v>14</v>
+      </c>
+      <c r="B492" s="0">
+        <v>5</v>
       </c>
       <c r="C492" s="0">
         <v>2.1713989999998375</v>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B493" s="0" t="s">
-        <v>118</v>
+      <c r="A493" s="0">
+        <v>14</v>
+      </c>
+      <c r="B493" s="0">
+        <v>5</v>
       </c>
       <c r="C493" s="0">
         <v>2.1804539999998269</v>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B494" s="0" t="s">
-        <v>118</v>
+      <c r="A494" s="0">
+        <v>14</v>
+      </c>
+      <c r="B494" s="0">
+        <v>5</v>
       </c>
       <c r="C494" s="0">
         <v>3.9082440000001952</v>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B495" s="0" t="s">
-        <v>118</v>
+      <c r="A495" s="0">
+        <v>14</v>
+      </c>
+      <c r="B495" s="0">
+        <v>5</v>
       </c>
       <c r="C495" s="0">
         <v>3.0022690000000694</v>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B496" s="0" t="s">
-        <v>118</v>
+      <c r="A496" s="0">
+        <v>14</v>
+      </c>
+      <c r="B496" s="0">
+        <v>5</v>
       </c>
       <c r="C496" s="0">
         <v>2.195940999999948</v>
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B497" s="0" t="s">
-        <v>118</v>
+      <c r="A497" s="0">
+        <v>14</v>
+      </c>
+      <c r="B497" s="0">
+        <v>5</v>
       </c>
       <c r="C497" s="0">
         <v>2.1958325000000514</v>
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>118</v>
+      <c r="A498" s="0">
+        <v>14</v>
+      </c>
+      <c r="B498" s="0">
+        <v>5</v>
       </c>
       <c r="C498" s="0">
         <v>2.130598000000191</v>
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>118</v>
+      <c r="A499" s="0">
+        <v>14</v>
+      </c>
+      <c r="B499" s="0">
+        <v>5</v>
       </c>
       <c r="C499" s="0">
         <v>2.2782843999998477</v>
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B500" s="0" t="s">
-        <v>118</v>
+      <c r="A500" s="0">
+        <v>14</v>
+      </c>
+      <c r="B500" s="0">
+        <v>5</v>
       </c>
       <c r="C500" s="0">
         <v>3.7164562000002661</v>
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B501" s="0" t="s">
-        <v>118</v>
+      <c r="A501" s="0">
+        <v>14</v>
+      </c>
+      <c r="B501" s="0">
+        <v>5</v>
       </c>
       <c r="C501" s="0">
         <v>2.3823860000002242</v>
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B502" s="0" t="s">
-        <v>118</v>
+      <c r="A502" s="0">
+        <v>15</v>
+      </c>
+      <c r="B502" s="0">
+        <v>5</v>
       </c>
       <c r="C502" s="0">
         <v>7.1211800000000949</v>
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B503" s="0" t="s">
-        <v>118</v>
+      <c r="A503" s="0">
+        <v>15</v>
+      </c>
+      <c r="B503" s="0">
+        <v>5</v>
       </c>
       <c r="C503" s="0">
         <v>3.5382999999999356</v>
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B504" s="0" t="s">
-        <v>118</v>
+      <c r="A504" s="0">
+        <v>15</v>
+      </c>
+      <c r="B504" s="0">
+        <v>5</v>
       </c>
       <c r="C504" s="0">
         <v>5.6803899999999885</v>
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B505" s="0" t="s">
-        <v>118</v>
+      <c r="A505" s="0">
+        <v>15</v>
+      </c>
+      <c r="B505" s="0">
+        <v>5</v>
       </c>
       <c r="C505" s="0">
         <v>3.2615299999999934</v>
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>118</v>
+      <c r="A506" s="0">
+        <v>15</v>
+      </c>
+      <c r="B506" s="0">
+        <v>5</v>
       </c>
       <c r="C506" s="0">
         <v>5.760530000000017</v>
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B507" s="0" t="s">
-        <v>118</v>
+      <c r="A507" s="0">
+        <v>15</v>
+      </c>
+      <c r="B507" s="0">
+        <v>5</v>
       </c>
       <c r="C507" s="0">
         <v>6.2704499999999825</v>
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B508" s="0" t="s">
-        <v>118</v>
+      <c r="A508" s="0">
+        <v>15</v>
+      </c>
+      <c r="B508" s="0">
+        <v>5</v>
       </c>
       <c r="C508" s="0">
         <v>2.939010000000053</v>
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B509" s="0" t="s">
-        <v>118</v>
+      <c r="A509" s="0">
+        <v>15</v>
+      </c>
+      <c r="B509" s="0">
+        <v>5</v>
       </c>
       <c r="C509" s="0">
         <v>2.6753599999999551</v>
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B510" s="0" t="s">
-        <v>118</v>
+      <c r="A510" s="0">
+        <v>15</v>
+      </c>
+      <c r="B510" s="0">
+        <v>5</v>
       </c>
       <c r="C510" s="0">
         <v>2.9514899999999216</v>
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B511" s="0" t="s">
-        <v>118</v>
+      <c r="A511" s="0">
+        <v>15</v>
+      </c>
+      <c r="B511" s="0">
+        <v>5</v>
       </c>
       <c r="C511" s="0">
         <v>2.6432700000000295</v>
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B512" s="0" t="s">
-        <v>118</v>
+      <c r="A512" s="0">
+        <v>16</v>
+      </c>
+      <c r="B512" s="0">
+        <v>5</v>
       </c>
       <c r="C512" s="0">
         <v>2.6345400000000154</v>
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B513" s="0" t="s">
-        <v>118</v>
+      <c r="A513" s="0">
+        <v>16</v>
+      </c>
+      <c r="B513" s="0">
+        <v>5</v>
       </c>
       <c r="C513" s="0">
         <v>2.8777199999999539</v>
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B514" s="0" t="s">
-        <v>118</v>
+      <c r="A514" s="0">
+        <v>16</v>
+      </c>
+      <c r="B514" s="0">
+        <v>5</v>
       </c>
       <c r="C514" s="0">
         <v>2.7478500000001986</v>
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B515" s="0" t="s">
-        <v>118</v>
+      <c r="A515" s="0">
+        <v>16</v>
+      </c>
+      <c r="B515" s="0">
+        <v>5</v>
       </c>
       <c r="C515" s="0">
         <v>2.5296700000001238</v>
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B516" s="0" t="s">
-        <v>118</v>
+      <c r="A516" s="0">
+        <v>16</v>
+      </c>
+      <c r="B516" s="0">
+        <v>5</v>
       </c>
       <c r="C516" s="0">
         <v>5.7291499999998905</v>
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B517" s="0" t="s">
-        <v>118</v>
+      <c r="A517" s="0">
+        <v>16</v>
+      </c>
+      <c r="B517" s="0">
+        <v>5</v>
       </c>
       <c r="C517" s="0">
         <v>2.9583999999999833</v>
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B518" s="0" t="s">
-        <v>118</v>
+      <c r="A518" s="0">
+        <v>16</v>
+      </c>
+      <c r="B518" s="0">
+        <v>5</v>
       </c>
       <c r="C518" s="0">
         <v>2.5390100000001894</v>
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B519" s="0" t="s">
-        <v>118</v>
+      <c r="A519" s="0">
+        <v>16</v>
+      </c>
+      <c r="B519" s="0">
+        <v>5</v>
       </c>
       <c r="C519" s="0">
         <v>5.7496499999999742</v>
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B520" s="0" t="s">
-        <v>118</v>
+      <c r="A520" s="0">
+        <v>16</v>
+      </c>
+      <c r="B520" s="0">
+        <v>5</v>
       </c>
       <c r="C520" s="0">
         <v>2.6453699999999571</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>118</v>
+      <c r="A521" s="0">
+        <v>16</v>
+      </c>
+      <c r="B521" s="0">
+        <v>5</v>
       </c>
       <c r="C521" s="0">
         <v>2.6327499999999873</v>
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B522" s="0" t="s">
-        <v>118</v>
+      <c r="A522" s="0">
+        <v>17</v>
+      </c>
+      <c r="B522" s="0">
+        <v>5</v>
       </c>
       <c r="C522" s="0">
         <v>6.2382800000000316</v>
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B523" s="0" t="s">
-        <v>118</v>
+      <c r="A523" s="0">
+        <v>17</v>
+      </c>
+      <c r="B523" s="0">
+        <v>5</v>
       </c>
       <c r="C523" s="0">
         <v>6.4593399999998837</v>
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B524" s="0" t="s">
-        <v>118</v>
+      <c r="A524" s="0">
+        <v>17</v>
+      </c>
+      <c r="B524" s="0">
+        <v>5</v>
       </c>
       <c r="C524" s="0">
         <v>5.6560399999998481</v>
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B525" s="0" t="s">
-        <v>118</v>
+      <c r="A525" s="0">
+        <v>17</v>
+      </c>
+      <c r="B525" s="0">
+        <v>5</v>
       </c>
       <c r="C525" s="0">
         <v>5.6503200000001925</v>
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B526" s="0" t="s">
-        <v>118</v>
+      <c r="A526" s="0">
+        <v>17</v>
+      </c>
+      <c r="B526" s="0">
+        <v>5</v>
       </c>
       <c r="C526" s="0">
         <v>5.6137799999996787</v>
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B527" s="0" t="s">
-        <v>118</v>
+      <c r="A527" s="0">
+        <v>17</v>
+      </c>
+      <c r="B527" s="0">
+        <v>5</v>
       </c>
       <c r="C527" s="0">
         <v>12.299420000000282</v>
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B528" s="0" t="s">
-        <v>118</v>
+      <c r="A528" s="0">
+        <v>17</v>
+      </c>
+      <c r="B528" s="0">
+        <v>5</v>
       </c>
       <c r="C528" s="0">
         <v>6.5970200000001569</v>
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B529" s="0" t="s">
-        <v>118</v>
+      <c r="A529" s="0">
+        <v>17</v>
+      </c>
+      <c r="B529" s="0">
+        <v>5</v>
       </c>
       <c r="C529" s="0">
         <v>6.2438999999999396</v>
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B530" s="0" t="s">
-        <v>118</v>
+      <c r="A530" s="0">
+        <v>17</v>
+      </c>
+      <c r="B530" s="0">
+        <v>5</v>
       </c>
       <c r="C530" s="0">
         <v>7.6013499999999112</v>
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B531" s="0" t="s">
-        <v>118</v>
+      <c r="A531" s="0">
+        <v>17</v>
+      </c>
+      <c r="B531" s="0">
+        <v>5</v>
       </c>
       <c r="C531" s="0">
         <v>6.4880000000002838</v>
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B532" s="0" t="s">
-        <v>118</v>
+      <c r="A532" s="0">
+        <v>18</v>
+      </c>
+      <c r="B532" s="0">
+        <v>5</v>
       </c>
       <c r="C532" s="0">
         <v>5.6650099999999384</v>
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B533" s="0" t="s">
-        <v>118</v>
+      <c r="A533" s="0">
+        <v>18</v>
+      </c>
+      <c r="B533" s="0">
+        <v>5</v>
       </c>
       <c r="C533" s="0">
         <v>12.714009999999917</v>
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B534" s="0" t="s">
-        <v>118</v>
+      <c r="A534" s="0">
+        <v>18</v>
+      </c>
+      <c r="B534" s="0">
+        <v>5</v>
       </c>
       <c r="C534" s="0">
         <v>6.493310000000065</v>
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B535" s="0" t="s">
-        <v>118</v>
+      <c r="A535" s="0">
+        <v>18</v>
+      </c>
+      <c r="B535" s="0">
+        <v>5</v>
       </c>
       <c r="C535" s="0">
         <v>8.5561199999999644</v>
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B536" s="0" t="s">
-        <v>118</v>
+      <c r="A536" s="0">
+        <v>18</v>
+      </c>
+      <c r="B536" s="0">
+        <v>5</v>
       </c>
       <c r="C536" s="0">
         <v>5.3866500000001452</v>
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B537" s="0" t="s">
-        <v>118</v>
+      <c r="A537" s="0">
+        <v>18</v>
+      </c>
+      <c r="B537" s="0">
+        <v>5</v>
       </c>
       <c r="C537" s="0">
         <v>5.9777000000001408</v>
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B538" s="0" t="s">
-        <v>118</v>
+      <c r="A538" s="0">
+        <v>18</v>
+      </c>
+      <c r="B538" s="0">
+        <v>5</v>
       </c>
       <c r="C538" s="0">
         <v>5.6749200000001565</v>
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B539" s="0" t="s">
-        <v>118</v>
+      <c r="A539" s="0">
+        <v>18</v>
+      </c>
+      <c r="B539" s="0">
+        <v>5</v>
       </c>
       <c r="C539" s="0">
         <v>5.5822400000001835</v>
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B540" s="0" t="s">
-        <v>118</v>
+      <c r="A540" s="0">
+        <v>18</v>
+      </c>
+      <c r="B540" s="0">
+        <v>5</v>
       </c>
       <c r="C540" s="0">
         <v>8.2738800000001902</v>
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B541" s="0" t="s">
-        <v>118</v>
+      <c r="A541" s="0">
+        <v>18</v>
+      </c>
+      <c r="B541" s="0">
+        <v>5</v>
       </c>
       <c r="C541" s="0">
         <v>6.5684300000000349</v>
